--- a/teaching/traditional_assets/database/data/switzerland/switzerland_steel.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_steel.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="lse_fxpo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,118 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0141</v>
+        <v>0.009099999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.336</v>
       </c>
       <c r="G2">
-        <v>0.07103436256426643</v>
+        <v>0.1516715877702638</v>
       </c>
       <c r="H2">
-        <v>0.0684056118744009</v>
+        <v>0.1482665015715782</v>
       </c>
       <c r="I2">
-        <v>-0.01698347410368865</v>
+        <v>0.0611248690351462</v>
       </c>
       <c r="J2">
-        <v>-0.01698347410368865</v>
+        <v>0.05741416720824783</v>
       </c>
       <c r="K2">
-        <v>-573.7</v>
+        <v>-20.19999999999999</v>
       </c>
       <c r="L2">
-        <v>-0.1666424608592094</v>
+        <v>-0.004809981903038382</v>
       </c>
       <c r="M2">
-        <v>2.51</v>
+        <v>77.2</v>
       </c>
       <c r="N2">
-        <v>0.009177330895795246</v>
+        <v>0.02751639577986884</v>
       </c>
       <c r="O2">
-        <v>-0.004375108941955725</v>
+        <v>-3.821782178217824</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>77.2</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.02751639577986884</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>-3.821782178217824</v>
       </c>
       <c r="S2">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>49.2</v>
+        <v>235.2</v>
       </c>
       <c r="V2">
-        <v>0.179890310786106</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="W2">
-        <v>-0.6105139938278175</v>
+        <v>-0.6854043201088692</v>
       </c>
       <c r="X2">
-        <v>0.1838357482684904</v>
+        <v>0.08346641457924936</v>
       </c>
       <c r="Y2">
-        <v>-0.7943497420963079</v>
+        <v>-0.7688707346881185</v>
       </c>
       <c r="Z2">
-        <v>1.903784919393994</v>
+        <v>1.75216955941255</v>
       </c>
       <c r="AA2">
-        <v>-0.03233288187752088</v>
+        <v>0.04823094448258418</v>
       </c>
       <c r="AB2">
-        <v>0.1055219459342081</v>
+        <v>0.0579681791970247</v>
       </c>
       <c r="AC2">
-        <v>-0.137854827811729</v>
+        <v>-0.009737234714440518</v>
       </c>
       <c r="AD2">
-        <v>838</v>
+        <v>1126.3</v>
       </c>
       <c r="AE2">
-        <v>112.3450314838446</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>950.3450314838447</v>
+        <v>1126.3</v>
       </c>
       <c r="AG2">
-        <v>901.1450314838446</v>
+        <v>891.0999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.7765239936723064</v>
+        <v>0.286451842620616</v>
       </c>
       <c r="AI2">
-        <v>0.7957039267816467</v>
+        <v>0.422531512605042</v>
       </c>
       <c r="AJ2">
-        <v>0.7671637025063588</v>
+        <v>0.241052830903238</v>
       </c>
       <c r="AK2">
-        <v>0.7869265522779834</v>
+        <v>0.366647465437788</v>
       </c>
       <c r="AL2">
-        <v>46.7</v>
+        <v>64.5</v>
       </c>
       <c r="AM2">
-        <v>42.45</v>
+        <v>60.959</v>
       </c>
       <c r="AN2">
-        <v>11.81946403385049</v>
+        <v>2.632772323515661</v>
       </c>
       <c r="AO2">
-        <v>-1.079229122055674</v>
+        <v>3.97984496124031</v>
       </c>
       <c r="AP2">
-        <v>12.710085070294</v>
+        <v>2.082982702197289</v>
       </c>
       <c r="AQ2">
-        <v>-1.187279151943463</v>
+        <v>4.211027083777621</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +718,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Schmolz + Bickenbach AG (SWX:STLN)</t>
+          <t>Ferrexpo plc (LSE:FXPO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,118 +727,8967 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0141</v>
+        <v>0.0556</v>
+      </c>
+      <c r="E3">
+        <v>0.336</v>
       </c>
       <c r="G3">
-        <v>0.07103436256426643</v>
+        <v>0.4129329945165173</v>
       </c>
       <c r="H3">
-        <v>0.0684056118744009</v>
+        <v>0.4129329945165173</v>
       </c>
       <c r="I3">
-        <v>-0.01698347410368865</v>
+        <v>0.3055369800722215</v>
       </c>
       <c r="J3">
-        <v>-0.01698347410368865</v>
+        <v>0.2684405691339141</v>
       </c>
       <c r="K3">
-        <v>-573.7</v>
+        <v>382.8</v>
       </c>
       <c r="L3">
-        <v>-0.1666424608592094</v>
+        <v>0.2559850207302394</v>
       </c>
       <c r="M3">
-        <v>2.51</v>
+        <v>77.2</v>
       </c>
       <c r="N3">
-        <v>0.009177330895795246</v>
+        <v>0.03404630650496141</v>
       </c>
       <c r="O3">
-        <v>-0.004375108941955725</v>
+        <v>0.2016718913270637</v>
       </c>
       <c r="P3">
+        <v>77.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.03404630650496141</v>
+      </c>
+      <c r="R3">
+        <v>0.2016718913270637</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>169.2</v>
+      </c>
+      <c r="V3">
+        <v>0.07461962513781698</v>
+      </c>
+      <c r="W3">
+        <v>0.3506779039941371</v>
+      </c>
+      <c r="X3">
+        <v>0.05902544312438048</v>
+      </c>
+      <c r="Y3">
+        <v>0.2916524608697566</v>
+      </c>
+      <c r="Z3">
+        <v>1.088434383870733</v>
+      </c>
+      <c r="AA3">
+        <v>0.2921799454711807</v>
+      </c>
+      <c r="AB3">
+        <v>0.05895696373210751</v>
+      </c>
+      <c r="AC3">
+        <v>0.2332229817390732</v>
+      </c>
+      <c r="AD3">
+        <v>343.5</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>343.5</v>
+      </c>
+      <c r="AG3">
+        <v>174.3</v>
+      </c>
+      <c r="AH3">
+        <v>0.1315587897357334</v>
+      </c>
+      <c r="AI3">
+        <v>0.2061948496308302</v>
+      </c>
+      <c r="AJ3">
+        <v>0.07138176754852978</v>
+      </c>
+      <c r="AK3">
+        <v>0.1164562036480257</v>
+      </c>
+      <c r="AL3">
+        <v>12.7</v>
+      </c>
+      <c r="AM3">
+        <v>11.859</v>
+      </c>
+      <c r="AN3">
+        <v>0.6309698750918442</v>
+      </c>
+      <c r="AO3">
+        <v>35.9763779527559</v>
+      </c>
+      <c r="AP3">
+        <v>0.3201689933872153</v>
+      </c>
+      <c r="AQ3">
+        <v>38.52770048064761</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Swiss Steel Holding AG (SWX:STLN)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>-0.0374</v>
+      </c>
+      <c r="G4">
+        <v>0.007196213297833001</v>
+      </c>
+      <c r="H4">
+        <v>0.001908142888839583</v>
+      </c>
+      <c r="I4">
+        <v>-0.07403298572590784</v>
+      </c>
+      <c r="J4">
+        <v>-0.07403298572590784</v>
+      </c>
+      <c r="K4">
+        <v>-403</v>
+      </c>
+      <c r="L4">
+        <v>-0.1490274387989054</v>
+      </c>
+      <c r="M4">
         <v>-0</v>
       </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>66</v>
+      </c>
+      <c r="V4">
+        <v>0.1226537818249396</v>
+      </c>
+      <c r="W4">
+        <v>-1.721486544211875</v>
+      </c>
+      <c r="X4">
+        <v>0.1079073860341183</v>
+      </c>
+      <c r="Y4">
+        <v>-1.829393930245994</v>
+      </c>
+      <c r="Z4">
+        <v>2.643660181835957</v>
+      </c>
+      <c r="AA4">
+        <v>-0.1957180565060123</v>
+      </c>
+      <c r="AB4">
+        <v>0.05697939466194189</v>
+      </c>
+      <c r="AC4">
+        <v>-0.2526974511679542</v>
+      </c>
+      <c r="AD4">
+        <v>782.8</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>782.8</v>
+      </c>
+      <c r="AG4">
+        <v>716.8</v>
+      </c>
+      <c r="AH4">
+        <v>0.5926262396850631</v>
+      </c>
+      <c r="AI4">
+        <v>0.783034910473142</v>
+      </c>
+      <c r="AJ4">
+        <v>0.5712008925013945</v>
+      </c>
+      <c r="AK4">
+        <v>0.7676984041983507</v>
+      </c>
+      <c r="AL4">
+        <v>51.8</v>
+      </c>
+      <c r="AM4">
+        <v>49.09999999999999</v>
+      </c>
+      <c r="AN4">
+        <v>-6.713550600343053</v>
+      </c>
+      <c r="AO4">
+        <v>-3.864864864864865</v>
+      </c>
+      <c r="AP4">
+        <v>-6.147512864493996</v>
+      </c>
+      <c r="AQ4">
+        <v>-4.077393075356416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ferrexpo plc (LSE:FXPO)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LSE:FXPO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.131558789735733</v>
+      </c>
+      <c r="F2">
+        <v>0.78</v>
+      </c>
+      <c r="G2">
+        <v>2267.5</v>
+      </c>
+      <c r="H2">
+        <v>883.469416237014</v>
+      </c>
+      <c r="I2">
+        <v>2441.8</v>
+      </c>
+      <c r="J2">
+        <v>2750.84941623701</v>
+      </c>
+      <c r="K2">
+        <v>343.5</v>
+      </c>
+      <c r="L2">
+        <v>2036.58</v>
+      </c>
+      <c r="M2">
+        <v>0.0589569637321075</v>
+      </c>
+      <c r="N2">
+        <v>0.0517521939784979</v>
+      </c>
+      <c r="O2">
+        <v>0.05850492</v>
+      </c>
+      <c r="P2">
+        <v>0.01379592</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0590254431243805</v>
+      </c>
+      <c r="T2">
+        <v>0.186324438084081</v>
+      </c>
+      <c r="U2">
+        <v>1.05350515094026</v>
+      </c>
+      <c r="V2">
+        <v>3.75051775601867</v>
+      </c>
+      <c r="W2">
+        <v>13.84856165910679</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>-3.469446951953614e-18</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>2267.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0687</v>
+      </c>
+      <c r="AD2">
+        <v>0.1484</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>544.4</v>
+      </c>
+      <c r="AH2">
+        <v>87.5</v>
+      </c>
+      <c r="AI2">
+        <v>319.19</v>
+      </c>
+      <c r="AJ2">
+        <v>343.5</v>
+      </c>
+      <c r="AK2">
+        <v>343.5</v>
+      </c>
+      <c r="AL2">
+        <v>12.7</v>
+      </c>
+      <c r="AM2">
+        <v>343.5</v>
+      </c>
+      <c r="AN2">
+        <v>169.2</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05334349953689224</v>
+      </c>
+      <c r="C2">
+        <v>2845.242070058855</v>
+      </c>
+      <c r="D2">
+        <v>2676.042070058855</v>
+      </c>
+      <c r="E2">
+        <v>-343.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>169.2</v>
+      </c>
+      <c r="H2">
+        <v>2267.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>544.4</v>
+      </c>
+      <c r="K2">
+        <v>87.5</v>
+      </c>
+      <c r="L2">
+        <v>456.9</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>456.9</v>
+      </c>
+      <c r="O2">
+        <v>67.80396</v>
+      </c>
+      <c r="P2">
+        <v>389.09604</v>
+      </c>
+      <c r="Q2">
+        <v>476.59604</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05334349953689224</v>
+      </c>
+      <c r="T2">
+        <v>0.9331249901883949</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.1484</v>
+      </c>
+      <c r="W2">
+        <v>0.01379592</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05332309818357949</v>
+      </c>
+      <c r="C3">
+        <v>2820.065382823583</v>
+      </c>
+      <c r="D3">
+        <v>2676.975382823583</v>
+      </c>
+      <c r="E3">
+        <v>-317.39</v>
+      </c>
+      <c r="F3">
+        <v>26.11</v>
+      </c>
+      <c r="G3">
+        <v>169.2</v>
+      </c>
+      <c r="H3">
+        <v>2267.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>544.4</v>
+      </c>
+      <c r="K3">
+        <v>87.5</v>
+      </c>
+      <c r="L3">
+        <v>456.9</v>
+      </c>
+      <c r="M3">
+        <v>0.4229819999999999</v>
+      </c>
+      <c r="N3">
+        <v>456.477018</v>
+      </c>
+      <c r="O3">
+        <v>67.7411894712</v>
+      </c>
+      <c r="P3">
+        <v>388.7358285288</v>
+      </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>476.2358285288</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>2.51</v>
+        <v>0.05372236260967625</v>
       </c>
       <c r="T3">
+        <v>0.9411517502050054</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.1484</v>
+      </c>
+      <c r="W3">
+        <v>0.01379592</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>1080.18780941033</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05330269683026674</v>
+      </c>
+      <c r="C4">
+        <v>2794.889346831153</v>
+      </c>
+      <c r="D4">
+        <v>2677.909346831153</v>
+      </c>
+      <c r="E4">
+        <v>-291.28</v>
+      </c>
+      <c r="F4">
+        <v>52.22</v>
+      </c>
+      <c r="G4">
+        <v>169.2</v>
+      </c>
+      <c r="H4">
+        <v>2267.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>544.4</v>
+      </c>
+      <c r="K4">
+        <v>87.5</v>
+      </c>
+      <c r="L4">
+        <v>456.9</v>
+      </c>
+      <c r="M4">
+        <v>0.8459639999999997</v>
+      </c>
+      <c r="N4">
+        <v>456.054036</v>
+      </c>
+      <c r="O4">
+        <v>67.6784189424</v>
+      </c>
+      <c r="P4">
+        <v>388.3756170576</v>
+      </c>
+      <c r="Q4">
+        <v>475.8756170576</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05410895758190484</v>
+      </c>
+      <c r="T4">
+        <v>0.9493423216505263</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.1484</v>
+      </c>
+      <c r="W4">
+        <v>0.01379592</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>540.093904705165</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05328229547695399</v>
+      </c>
+      <c r="C5">
+        <v>2769.713962763438</v>
+      </c>
+      <c r="D5">
+        <v>2678.843962763438</v>
+      </c>
+      <c r="E5">
+        <v>-265.17</v>
+      </c>
+      <c r="F5">
+        <v>78.33</v>
+      </c>
+      <c r="G5">
+        <v>169.2</v>
+      </c>
+      <c r="H5">
+        <v>2267.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>544.4</v>
+      </c>
+      <c r="K5">
+        <v>87.5</v>
+      </c>
+      <c r="L5">
+        <v>456.9</v>
+      </c>
+      <c r="M5">
+        <v>1.268946</v>
+      </c>
+      <c r="N5">
+        <v>455.6310539999999</v>
+      </c>
+      <c r="O5">
+        <v>67.6156484136</v>
+      </c>
+      <c r="P5">
+        <v>388.0154055863999</v>
+      </c>
+      <c r="Q5">
+        <v>475.5154055863999</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05450352358448865</v>
+      </c>
+      <c r="T5">
+        <v>0.9577017708578105</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.1484</v>
+      </c>
+      <c r="W5">
+        <v>0.01379592</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>360.0626031367765</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05326189412364123</v>
+      </c>
+      <c r="C6">
+        <v>2744.539231303257</v>
+      </c>
+      <c r="D6">
+        <v>2679.779231303257</v>
+      </c>
+      <c r="E6">
+        <v>-239.06</v>
+      </c>
+      <c r="F6">
+        <v>104.44</v>
+      </c>
+      <c r="G6">
+        <v>169.2</v>
+      </c>
+      <c r="H6">
+        <v>2267.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>544.4</v>
+      </c>
+      <c r="K6">
+        <v>87.5</v>
+      </c>
+      <c r="L6">
+        <v>456.9</v>
+      </c>
+      <c r="M6">
+        <v>1.691927999999999</v>
+      </c>
+      <c r="N6">
+        <v>455.208072</v>
+      </c>
+      <c r="O6">
+        <v>67.5528778848</v>
+      </c>
+      <c r="P6">
+        <v>387.6551941151999</v>
+      </c>
+      <c r="Q6">
+        <v>475.1551941151999</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05490630971212629</v>
+      </c>
+      <c r="T6">
+        <v>0.9662353752569131</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.1484</v>
+      </c>
+      <c r="W6">
+        <v>0.01379592</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>270.0469523525824</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05324149277032849</v>
+      </c>
+      <c r="C7">
+        <v>2719.365153134388</v>
+      </c>
+      <c r="D7">
+        <v>2680.715153134389</v>
+      </c>
+      <c r="E7">
+        <v>-212.95</v>
+      </c>
+      <c r="F7">
+        <v>130.55</v>
+      </c>
+      <c r="G7">
+        <v>169.2</v>
+      </c>
+      <c r="H7">
+        <v>2267.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>544.4</v>
+      </c>
+      <c r="K7">
+        <v>87.5</v>
+      </c>
+      <c r="L7">
+        <v>456.9</v>
+      </c>
+      <c r="M7">
+        <v>2.11491</v>
+      </c>
+      <c r="N7">
+        <v>454.78509</v>
+      </c>
+      <c r="O7">
+        <v>67.490107356</v>
+      </c>
+      <c r="P7">
+        <v>387.294982644</v>
+      </c>
+      <c r="Q7">
+        <v>474.794982644</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0553175755477142</v>
+      </c>
+      <c r="T7">
+        <v>0.9749486344854704</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.1484</v>
+      </c>
+      <c r="W7">
+        <v>0.01379592</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>216.0375618820659</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05322109141701575</v>
+      </c>
+      <c r="C8">
+        <v>2694.191728941563</v>
+      </c>
+      <c r="D8">
+        <v>2681.651728941563</v>
+      </c>
+      <c r="E8">
+        <v>-186.84</v>
+      </c>
+      <c r="F8">
+        <v>156.66</v>
+      </c>
+      <c r="G8">
+        <v>169.2</v>
+      </c>
+      <c r="H8">
+        <v>2267.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>544.4</v>
+      </c>
+      <c r="K8">
+        <v>87.5</v>
+      </c>
+      <c r="L8">
+        <v>456.9</v>
+      </c>
+      <c r="M8">
+        <v>2.537891999999999</v>
+      </c>
+      <c r="N8">
+        <v>454.362108</v>
+      </c>
+      <c r="O8">
+        <v>67.42733682719999</v>
+      </c>
+      <c r="P8">
+        <v>386.9347711728</v>
+      </c>
+      <c r="Q8">
+        <v>474.4347711728</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05573759172022952</v>
+      </c>
+      <c r="T8">
+        <v>0.9838472822082526</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.1484</v>
+      </c>
+      <c r="W8">
+        <v>0.01379592</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>180.0313015683883</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05320069006370299</v>
+      </c>
+      <c r="C9">
+        <v>2669.018959410469</v>
+      </c>
+      <c r="D9">
+        <v>2682.588959410469</v>
+      </c>
+      <c r="E9">
+        <v>-160.73</v>
+      </c>
+      <c r="F9">
+        <v>182.77</v>
+      </c>
+      <c r="G9">
+        <v>169.2</v>
+      </c>
+      <c r="H9">
+        <v>2267.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>544.4</v>
+      </c>
+      <c r="K9">
+        <v>87.5</v>
+      </c>
+      <c r="L9">
+        <v>456.9</v>
+      </c>
+      <c r="M9">
+        <v>2.960874</v>
+      </c>
+      <c r="N9">
+        <v>453.939126</v>
+      </c>
+      <c r="O9">
+        <v>67.36456629840001</v>
+      </c>
+      <c r="P9">
+        <v>386.5745597016</v>
+      </c>
+      <c r="Q9">
+        <v>474.0745597016</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05616664049860537</v>
+      </c>
+      <c r="T9">
+        <v>0.9929372986992664</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.1484</v>
+      </c>
+      <c r="W9">
+        <v>0.01379592</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>154.3125442014757</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05318028871039027</v>
+      </c>
+      <c r="C10">
+        <v>2643.846845227755</v>
+      </c>
+      <c r="D10">
+        <v>2683.526845227755</v>
+      </c>
+      <c r="E10">
+        <v>-134.62</v>
+      </c>
+      <c r="F10">
+        <v>208.88</v>
+      </c>
+      <c r="G10">
+        <v>169.2</v>
+      </c>
+      <c r="H10">
+        <v>2267.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>544.4</v>
+      </c>
+      <c r="K10">
+        <v>87.5</v>
+      </c>
+      <c r="L10">
+        <v>456.9</v>
+      </c>
+      <c r="M10">
+        <v>3.383855999999999</v>
+      </c>
+      <c r="N10">
+        <v>453.516144</v>
+      </c>
+      <c r="O10">
+        <v>67.30179576960001</v>
+      </c>
+      <c r="P10">
+        <v>386.2143482304</v>
+      </c>
+      <c r="Q10">
+        <v>473.7143482304</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05660501642433724</v>
+      </c>
+      <c r="T10">
+        <v>1.002224924244433</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.1484</v>
+      </c>
+      <c r="W10">
+        <v>0.01379592</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>135.0234761762912</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0531598873570775</v>
+      </c>
+      <c r="C11">
+        <v>2618.675387081031</v>
+      </c>
+      <c r="D11">
+        <v>2684.465387081031</v>
+      </c>
+      <c r="E11">
+        <v>-108.51</v>
+      </c>
+      <c r="F11">
+        <v>234.99</v>
+      </c>
+      <c r="G11">
+        <v>169.2</v>
+      </c>
+      <c r="H11">
+        <v>2267.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>544.4</v>
+      </c>
+      <c r="K11">
+        <v>87.5</v>
+      </c>
+      <c r="L11">
+        <v>456.9</v>
+      </c>
+      <c r="M11">
+        <v>3.806837999999999</v>
+      </c>
+      <c r="N11">
+        <v>453.093162</v>
+      </c>
+      <c r="O11">
+        <v>67.2390252408</v>
+      </c>
+      <c r="P11">
+        <v>385.8541367592</v>
+      </c>
+      <c r="Q11">
+        <v>473.3541367592</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05705302698579945</v>
+      </c>
+      <c r="T11">
+        <v>1.011716673427955</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.1484</v>
+      </c>
+      <c r="W11">
+        <v>0.01379592</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>120.0208677122589</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05313948600376475</v>
+      </c>
+      <c r="C12">
+        <v>2593.504585658865</v>
+      </c>
+      <c r="D12">
+        <v>2685.404585658865</v>
+      </c>
+      <c r="E12">
+        <v>-82.39999999999998</v>
+      </c>
+      <c r="F12">
+        <v>261.1</v>
+      </c>
+      <c r="G12">
+        <v>169.2</v>
+      </c>
+      <c r="H12">
+        <v>2267.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>544.4</v>
+      </c>
+      <c r="K12">
+        <v>87.5</v>
+      </c>
+      <c r="L12">
+        <v>456.9</v>
+      </c>
+      <c r="M12">
+        <v>4.229819999999999</v>
+      </c>
+      <c r="N12">
+        <v>452.67018</v>
+      </c>
+      <c r="O12">
+        <v>67.176254712</v>
+      </c>
+      <c r="P12">
+        <v>385.493925288</v>
+      </c>
+      <c r="Q12">
+        <v>472.993925288</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05751099333751639</v>
+      </c>
+      <c r="T12">
+        <v>1.02141935037111</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.1484</v>
+      </c>
+      <c r="W12">
+        <v>0.01379592</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>108.018780941033</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05311908465045202</v>
+      </c>
+      <c r="C13">
+        <v>2568.334441650791</v>
+      </c>
+      <c r="D13">
+        <v>2686.344441650791</v>
+      </c>
+      <c r="E13">
+        <v>-56.29000000000002</v>
+      </c>
+      <c r="F13">
+        <v>287.21</v>
+      </c>
+      <c r="G13">
+        <v>169.2</v>
+      </c>
+      <c r="H13">
+        <v>2267.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>544.4</v>
+      </c>
+      <c r="K13">
+        <v>87.5</v>
+      </c>
+      <c r="L13">
+        <v>456.9</v>
+      </c>
+      <c r="M13">
+        <v>4.652801999999999</v>
+      </c>
+      <c r="N13">
+        <v>452.247198</v>
+      </c>
+      <c r="O13">
+        <v>67.1134841832</v>
+      </c>
+      <c r="P13">
+        <v>385.1337138168</v>
+      </c>
+      <c r="Q13">
+        <v>472.6337138168</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05797925106792361</v>
+      </c>
+      <c r="T13">
+        <v>1.031340064998381</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.1484</v>
+      </c>
+      <c r="W13">
+        <v>0.01379592</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>98.19889176457544</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05309868329713926</v>
+      </c>
+      <c r="C14">
+        <v>2543.164955747313</v>
+      </c>
+      <c r="D14">
+        <v>2687.284955747314</v>
+      </c>
+      <c r="E14">
+        <v>-30.18000000000001</v>
+      </c>
+      <c r="F14">
+        <v>313.32</v>
+      </c>
+      <c r="G14">
+        <v>169.2</v>
+      </c>
+      <c r="H14">
+        <v>2267.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>544.4</v>
+      </c>
+      <c r="K14">
+        <v>87.5</v>
+      </c>
+      <c r="L14">
+        <v>456.9</v>
+      </c>
+      <c r="M14">
+        <v>5.075783999999999</v>
+      </c>
+      <c r="N14">
+        <v>451.824216</v>
+      </c>
+      <c r="O14">
+        <v>67.0507136544</v>
+      </c>
+      <c r="P14">
+        <v>384.7735023456</v>
+      </c>
+      <c r="Q14">
+        <v>472.2735023456</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05845815101947643</v>
+      </c>
+      <c r="T14">
+        <v>1.041486250412636</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.1484</v>
+      </c>
+      <c r="W14">
+        <v>0.01379592</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>90.01565078419415</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05307828194382652</v>
+      </c>
+      <c r="C15">
+        <v>2517.996128639897</v>
+      </c>
+      <c r="D15">
+        <v>2688.226128639897</v>
+      </c>
+      <c r="E15">
+        <v>-4.069999999999993</v>
+      </c>
+      <c r="F15">
+        <v>339.43</v>
+      </c>
+      <c r="G15">
+        <v>169.2</v>
+      </c>
+      <c r="H15">
+        <v>2267.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>544.4</v>
+      </c>
+      <c r="K15">
+        <v>87.5</v>
+      </c>
+      <c r="L15">
+        <v>456.9</v>
+      </c>
+      <c r="M15">
+        <v>5.498765999999999</v>
+      </c>
+      <c r="N15">
+        <v>451.401234</v>
+      </c>
+      <c r="O15">
+        <v>66.9879431256</v>
+      </c>
+      <c r="P15">
+        <v>384.4132908744</v>
+      </c>
+      <c r="Q15">
+        <v>471.9132908744</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05894806016531784</v>
+      </c>
+      <c r="T15">
+        <v>1.051865681468598</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.1484</v>
+      </c>
+      <c r="W15">
+        <v>0.01379592</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>83.09136995464074</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05305788059051376</v>
+      </c>
+      <c r="C16">
+        <v>2492.827961020979</v>
+      </c>
+      <c r="D16">
+        <v>2689.167961020979</v>
+      </c>
+      <c r="E16">
+        <v>22.04000000000002</v>
+      </c>
+      <c r="F16">
+        <v>365.54</v>
+      </c>
+      <c r="G16">
+        <v>169.2</v>
+      </c>
+      <c r="H16">
+        <v>2267.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>544.4</v>
+      </c>
+      <c r="K16">
+        <v>87.5</v>
+      </c>
+      <c r="L16">
+        <v>456.9</v>
+      </c>
+      <c r="M16">
+        <v>5.921747999999999</v>
+      </c>
+      <c r="N16">
+        <v>450.978252</v>
+      </c>
+      <c r="O16">
+        <v>66.9251725968</v>
+      </c>
+      <c r="P16">
+        <v>384.0530794032</v>
+      </c>
+      <c r="Q16">
+        <v>471.5530794032</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05944936254710903</v>
+      </c>
+      <c r="T16">
+        <v>1.06248649464214</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.1484</v>
+      </c>
+      <c r="W16">
+        <v>0.01379592</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>77.15627210073784</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05303747923720101</v>
+      </c>
+      <c r="C17">
+        <v>2467.660453583967</v>
+      </c>
+      <c r="D17">
+        <v>2690.110453583967</v>
+      </c>
+      <c r="E17">
+        <v>48.14999999999998</v>
+      </c>
+      <c r="F17">
+        <v>391.65</v>
+      </c>
+      <c r="G17">
+        <v>169.2</v>
+      </c>
+      <c r="H17">
+        <v>2267.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>544.4</v>
+      </c>
+      <c r="K17">
+        <v>87.5</v>
+      </c>
+      <c r="L17">
+        <v>456.9</v>
+      </c>
+      <c r="M17">
+        <v>6.344729999999998</v>
+      </c>
+      <c r="N17">
+        <v>450.55527</v>
+      </c>
+      <c r="O17">
+        <v>66.86240206800001</v>
+      </c>
+      <c r="P17">
+        <v>383.692867932</v>
+      </c>
+      <c r="Q17">
+        <v>471.192867932</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05996246027906002</v>
+      </c>
+      <c r="T17">
+        <v>1.073357209302119</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.1484</v>
+      </c>
+      <c r="W17">
+        <v>0.01379592</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>72.01252062735533</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05301707788388826</v>
+      </c>
+      <c r="C18">
+        <v>2442.493607023239</v>
+      </c>
+      <c r="D18">
+        <v>2691.053607023239</v>
+      </c>
+      <c r="E18">
+        <v>74.25999999999999</v>
+      </c>
+      <c r="F18">
+        <v>417.76</v>
+      </c>
+      <c r="G18">
+        <v>169.2</v>
+      </c>
+      <c r="H18">
+        <v>2267.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>544.4</v>
+      </c>
+      <c r="K18">
+        <v>87.5</v>
+      </c>
+      <c r="L18">
+        <v>456.9</v>
+      </c>
+      <c r="M18">
+        <v>6.767711999999998</v>
+      </c>
+      <c r="N18">
+        <v>450.132288</v>
+      </c>
+      <c r="O18">
+        <v>66.79963153919999</v>
+      </c>
+      <c r="P18">
+        <v>383.3326564608</v>
+      </c>
+      <c r="Q18">
+        <v>470.8326564608</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06048777462367651</v>
+      </c>
+      <c r="T18">
+        <v>1.084486750501621</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.1484</v>
+      </c>
+      <c r="W18">
+        <v>0.01379592</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>67.51173808814561</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05299667653057552</v>
+      </c>
+      <c r="C19">
+        <v>2417.327422034152</v>
+      </c>
+      <c r="D19">
+        <v>2691.997422034152</v>
+      </c>
+      <c r="E19">
+        <v>100.37</v>
+      </c>
+      <c r="F19">
+        <v>443.87</v>
+      </c>
+      <c r="G19">
+        <v>169.2</v>
+      </c>
+      <c r="H19">
+        <v>2267.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>544.4</v>
+      </c>
+      <c r="K19">
+        <v>87.5</v>
+      </c>
+      <c r="L19">
+        <v>456.9</v>
+      </c>
+      <c r="M19">
+        <v>7.190693999999998</v>
+      </c>
+      <c r="N19">
+        <v>449.709306</v>
+      </c>
+      <c r="O19">
+        <v>66.73686101039999</v>
+      </c>
+      <c r="P19">
+        <v>382.9724449896</v>
+      </c>
+      <c r="Q19">
+        <v>470.4724449896</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06102574714527172</v>
+      </c>
+      <c r="T19">
+        <v>1.095884473416774</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.1484</v>
+      </c>
+      <c r="W19">
+        <v>0.01379592</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>63.54045937707822</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05297627517726277</v>
+      </c>
+      <c r="C20">
+        <v>2392.161899313034</v>
+      </c>
+      <c r="D20">
+        <v>2692.941899313034</v>
+      </c>
+      <c r="E20">
+        <v>126.48</v>
+      </c>
+      <c r="F20">
+        <v>469.98</v>
+      </c>
+      <c r="G20">
+        <v>169.2</v>
+      </c>
+      <c r="H20">
+        <v>2267.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>544.4</v>
+      </c>
+      <c r="K20">
+        <v>87.5</v>
+      </c>
+      <c r="L20">
+        <v>456.9</v>
+      </c>
+      <c r="M20">
+        <v>7.613675999999997</v>
+      </c>
+      <c r="N20">
+        <v>449.286324</v>
+      </c>
+      <c r="O20">
+        <v>66.6740904816</v>
+      </c>
+      <c r="P20">
+        <v>382.6122335184</v>
+      </c>
+      <c r="Q20">
+        <v>470.1122335184</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06157684094788142</v>
+      </c>
+      <c r="T20">
+        <v>1.107560189573759</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.1484</v>
+      </c>
+      <c r="W20">
+        <v>0.01379592</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>60.01043385612944</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05295587382395003</v>
+      </c>
+      <c r="C21">
+        <v>2366.997039557194</v>
+      </c>
+      <c r="D21">
+        <v>2693.887039557194</v>
+      </c>
+      <c r="E21">
+        <v>152.59</v>
+      </c>
+      <c r="F21">
+        <v>496.09</v>
+      </c>
+      <c r="G21">
+        <v>169.2</v>
+      </c>
+      <c r="H21">
+        <v>2267.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>544.4</v>
+      </c>
+      <c r="K21">
+        <v>87.5</v>
+      </c>
+      <c r="L21">
+        <v>456.9</v>
+      </c>
+      <c r="M21">
+        <v>8.036657999999999</v>
+      </c>
+      <c r="N21">
+        <v>448.863342</v>
+      </c>
+      <c r="O21">
+        <v>66.6113199528</v>
+      </c>
+      <c r="P21">
+        <v>382.2520220472</v>
+      </c>
+      <c r="Q21">
+        <v>469.7520220472</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06214154200487657</v>
+      </c>
+      <c r="T21">
+        <v>1.119524195018571</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.1484</v>
+      </c>
+      <c r="W21">
+        <v>0.01379592</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>56.85198996896472</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05293547247063728</v>
+      </c>
+      <c r="C22">
+        <v>2341.832843464917</v>
+      </c>
+      <c r="D22">
+        <v>2694.832843464917</v>
+      </c>
+      <c r="E22">
+        <v>178.7</v>
+      </c>
+      <c r="F22">
+        <v>522.2</v>
+      </c>
+      <c r="G22">
+        <v>169.2</v>
+      </c>
+      <c r="H22">
+        <v>2267.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>544.4</v>
+      </c>
+      <c r="K22">
+        <v>87.5</v>
+      </c>
+      <c r="L22">
+        <v>456.9</v>
+      </c>
+      <c r="M22">
+        <v>8.459639999999998</v>
+      </c>
+      <c r="N22">
+        <v>448.44036</v>
+      </c>
+      <c r="O22">
+        <v>66.548549424</v>
+      </c>
+      <c r="P22">
+        <v>381.891810576</v>
+      </c>
+      <c r="Q22">
+        <v>469.391810576</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06272036058829659</v>
+      </c>
+      <c r="T22">
+        <v>1.131787300599504</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.1484</v>
+      </c>
+      <c r="W22">
+        <v>0.01379592</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>54.00939047051649</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05291507111732452</v>
+      </c>
+      <c r="C23">
+        <v>2316.669311735471</v>
+      </c>
+      <c r="D23">
+        <v>2695.779311735471</v>
+      </c>
+      <c r="E23">
+        <v>204.8099999999999</v>
+      </c>
+      <c r="F23">
+        <v>548.3099999999999</v>
+      </c>
+      <c r="G23">
+        <v>169.2</v>
+      </c>
+      <c r="H23">
+        <v>2267.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>544.4</v>
+      </c>
+      <c r="K23">
+        <v>87.5</v>
+      </c>
+      <c r="L23">
+        <v>456.9</v>
+      </c>
+      <c r="M23">
+        <v>8.882621999999996</v>
+      </c>
+      <c r="N23">
+        <v>448.017378</v>
+      </c>
+      <c r="O23">
+        <v>66.4857788952</v>
+      </c>
+      <c r="P23">
+        <v>381.5315991048</v>
+      </c>
+      <c r="Q23">
+        <v>469.0315991048</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.0633138328067399</v>
+      </c>
+      <c r="T23">
+        <v>1.144360864549574</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.1484</v>
+      </c>
+      <c r="W23">
+        <v>0.01379592</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>51.43751473382524</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05289466976401178</v>
+      </c>
+      <c r="C24">
+        <v>2291.506445069106</v>
+      </c>
+      <c r="D24">
+        <v>2696.726445069106</v>
+      </c>
+      <c r="E24">
+        <v>230.92</v>
+      </c>
+      <c r="F24">
+        <v>574.42</v>
+      </c>
+      <c r="G24">
+        <v>169.2</v>
+      </c>
+      <c r="H24">
+        <v>2267.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>544.4</v>
+      </c>
+      <c r="K24">
+        <v>87.5</v>
+      </c>
+      <c r="L24">
+        <v>456.9</v>
+      </c>
+      <c r="M24">
+        <v>9.305603999999997</v>
+      </c>
+      <c r="N24">
+        <v>447.594396</v>
+      </c>
+      <c r="O24">
+        <v>66.4230083664</v>
+      </c>
+      <c r="P24">
+        <v>381.1713876336</v>
+      </c>
+      <c r="Q24">
+        <v>468.6713876336</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06392252226155357</v>
+      </c>
+      <c r="T24">
+        <v>1.157256827575287</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.1484</v>
+      </c>
+      <c r="W24">
+        <v>0.01379592</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>49.09944588228772</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05287426841069903</v>
+      </c>
+      <c r="C25">
+        <v>2266.344244167059</v>
+      </c>
+      <c r="D25">
+        <v>2697.674244167059</v>
+      </c>
+      <c r="E25">
+        <v>257.03</v>
+      </c>
+      <c r="F25">
+        <v>600.53</v>
+      </c>
+      <c r="G25">
+        <v>169.2</v>
+      </c>
+      <c r="H25">
+        <v>2267.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>544.4</v>
+      </c>
+      <c r="K25">
+        <v>87.5</v>
+      </c>
+      <c r="L25">
+        <v>456.9</v>
+      </c>
+      <c r="M25">
+        <v>9.728585999999996</v>
+      </c>
+      <c r="N25">
+        <v>447.171414</v>
+      </c>
+      <c r="O25">
+        <v>66.3602378376</v>
+      </c>
+      <c r="P25">
+        <v>380.8111761624</v>
+      </c>
+      <c r="Q25">
+        <v>468.3111761624</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06454702183207667</v>
+      </c>
+      <c r="T25">
+        <v>1.17048775067959</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.1484</v>
+      </c>
+      <c r="W25">
+        <v>0.01379592</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>46.96468736566651</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05285386705738628</v>
+      </c>
+      <c r="C26">
+        <v>2241.182709731549</v>
+      </c>
+      <c r="D26">
+        <v>2698.622709731549</v>
+      </c>
+      <c r="E26">
+        <v>283.14</v>
+      </c>
+      <c r="F26">
+        <v>626.64</v>
+      </c>
+      <c r="G26">
+        <v>169.2</v>
+      </c>
+      <c r="H26">
+        <v>2267.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>544.4</v>
+      </c>
+      <c r="K26">
+        <v>87.5</v>
+      </c>
+      <c r="L26">
+        <v>456.9</v>
+      </c>
+      <c r="M26">
+        <v>10.151568</v>
+      </c>
+      <c r="N26">
+        <v>446.748432</v>
+      </c>
+      <c r="O26">
+        <v>66.29746730879999</v>
+      </c>
+      <c r="P26">
+        <v>380.4509646912</v>
+      </c>
+      <c r="Q26">
+        <v>467.9509646912</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06518795560182405</v>
+      </c>
+      <c r="T26">
+        <v>1.184066855970849</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.1484</v>
+      </c>
+      <c r="W26">
+        <v>0.01379592</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>45.00782539209708</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05283346570407354</v>
+      </c>
+      <c r="C27">
+        <v>2216.021842465784</v>
+      </c>
+      <c r="D27">
+        <v>2699.571842465784</v>
+      </c>
+      <c r="E27">
+        <v>309.25</v>
+      </c>
+      <c r="F27">
+        <v>652.75</v>
+      </c>
+      <c r="G27">
+        <v>169.2</v>
+      </c>
+      <c r="H27">
+        <v>2267.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>544.4</v>
+      </c>
+      <c r="K27">
+        <v>87.5</v>
+      </c>
+      <c r="L27">
+        <v>456.9</v>
+      </c>
+      <c r="M27">
+        <v>10.57455</v>
+      </c>
+      <c r="N27">
+        <v>446.32545</v>
+      </c>
+      <c r="O27">
+        <v>66.23469678000001</v>
+      </c>
+      <c r="P27">
+        <v>380.09075322</v>
+      </c>
+      <c r="Q27">
+        <v>467.59075322</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06584598093876472</v>
+      </c>
+      <c r="T27">
+        <v>1.198008070736541</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.1484</v>
+      </c>
+      <c r="W27">
+        <v>0.01379592</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>43.20751237641319</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05281306435076079</v>
+      </c>
+      <c r="C28">
+        <v>2190.861643073965</v>
+      </c>
+      <c r="D28">
+        <v>2700.521643073966</v>
+      </c>
+      <c r="E28">
+        <v>335.36</v>
+      </c>
+      <c r="F28">
+        <v>678.86</v>
+      </c>
+      <c r="G28">
+        <v>169.2</v>
+      </c>
+      <c r="H28">
+        <v>2267.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>544.4</v>
+      </c>
+      <c r="K28">
+        <v>87.5</v>
+      </c>
+      <c r="L28">
+        <v>456.9</v>
+      </c>
+      <c r="M28">
+        <v>10.997532</v>
+      </c>
+      <c r="N28">
+        <v>445.902468</v>
+      </c>
+      <c r="O28">
+        <v>66.17192625120001</v>
+      </c>
+      <c r="P28">
+        <v>379.7305417488</v>
+      </c>
+      <c r="Q28">
+        <v>467.2305417488</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06652179074427134</v>
+      </c>
+      <c r="T28">
+        <v>1.212326075090495</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.1484</v>
+      </c>
+      <c r="W28">
+        <v>0.01379592</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>41.54568497732038</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05279266299744804</v>
+      </c>
+      <c r="C29">
+        <v>2165.702112261281</v>
+      </c>
+      <c r="D29">
+        <v>2701.472112261282</v>
+      </c>
+      <c r="E29">
+        <v>361.47</v>
+      </c>
+      <c r="F29">
+        <v>704.97</v>
+      </c>
+      <c r="G29">
+        <v>169.2</v>
+      </c>
+      <c r="H29">
+        <v>2267.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>544.4</v>
+      </c>
+      <c r="K29">
+        <v>87.5</v>
+      </c>
+      <c r="L29">
+        <v>456.9</v>
+      </c>
+      <c r="M29">
+        <v>11.420514</v>
+      </c>
+      <c r="N29">
+        <v>445.479486</v>
+      </c>
+      <c r="O29">
+        <v>66.10915572239999</v>
+      </c>
+      <c r="P29">
+        <v>379.3703302776</v>
+      </c>
+      <c r="Q29">
+        <v>466.8703302776</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06721611588691513</v>
+      </c>
+      <c r="T29">
+        <v>1.227036353536338</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.1484</v>
+      </c>
+      <c r="W29">
+        <v>0.01379592</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>40.00695590408628</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05277226164413529</v>
+      </c>
+      <c r="C30">
+        <v>2140.543250733917</v>
+      </c>
+      <c r="D30">
+        <v>2702.423250733917</v>
+      </c>
+      <c r="E30">
+        <v>387.58</v>
+      </c>
+      <c r="F30">
+        <v>731.08</v>
+      </c>
+      <c r="G30">
+        <v>169.2</v>
+      </c>
+      <c r="H30">
+        <v>2267.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>544.4</v>
+      </c>
+      <c r="K30">
+        <v>87.5</v>
+      </c>
+      <c r="L30">
+        <v>456.9</v>
+      </c>
+      <c r="M30">
+        <v>11.843496</v>
+      </c>
+      <c r="N30">
+        <v>445.056504</v>
+      </c>
+      <c r="O30">
+        <v>66.0463851936</v>
+      </c>
+      <c r="P30">
+        <v>379.0101188064</v>
+      </c>
+      <c r="Q30">
+        <v>466.5101188064</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06792972783907679</v>
+      </c>
+      <c r="T30">
+        <v>1.242155250827898</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.1484</v>
+      </c>
+      <c r="W30">
+        <v>0.01379592</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>38.57813605036891</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05275186029082254</v>
+      </c>
+      <c r="C31">
+        <v>2115.385059199048</v>
+      </c>
+      <c r="D31">
+        <v>2703.375059199048</v>
+      </c>
+      <c r="E31">
+        <v>413.6899999999999</v>
+      </c>
+      <c r="F31">
+        <v>757.1899999999999</v>
+      </c>
+      <c r="G31">
+        <v>169.2</v>
+      </c>
+      <c r="H31">
+        <v>2267.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>544.4</v>
+      </c>
+      <c r="K31">
+        <v>87.5</v>
+      </c>
+      <c r="L31">
+        <v>456.9</v>
+      </c>
+      <c r="M31">
+        <v>12.266478</v>
+      </c>
+      <c r="N31">
+        <v>444.633522</v>
+      </c>
+      <c r="O31">
+        <v>65.9836146648</v>
+      </c>
+      <c r="P31">
+        <v>378.6499073351999</v>
+      </c>
+      <c r="Q31">
+        <v>466.1499073351999</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.06866344153636977</v>
+      </c>
+      <c r="T31">
+        <v>1.257700032550207</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.1484</v>
+      </c>
+      <c r="W31">
+        <v>0.01379592</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>37.24785549690792</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05273145893750979</v>
+      </c>
+      <c r="C32">
+        <v>2090.227538364849</v>
+      </c>
+      <c r="D32">
+        <v>2704.327538364849</v>
+      </c>
+      <c r="E32">
+        <v>439.8</v>
+      </c>
+      <c r="F32">
+        <v>783.3</v>
+      </c>
+      <c r="G32">
+        <v>169.2</v>
+      </c>
+      <c r="H32">
+        <v>2267.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>544.4</v>
+      </c>
+      <c r="K32">
+        <v>87.5</v>
+      </c>
+      <c r="L32">
+        <v>456.9</v>
+      </c>
+      <c r="M32">
+        <v>12.68946</v>
+      </c>
+      <c r="N32">
+        <v>444.21054</v>
+      </c>
+      <c r="O32">
+        <v>65.920844136</v>
+      </c>
+      <c r="P32">
+        <v>378.289695864</v>
+      </c>
+      <c r="Q32">
+        <v>465.789695864</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.06941811848215686</v>
+      </c>
+      <c r="T32">
+        <v>1.273688950893154</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.1484</v>
+      </c>
+      <c r="W32">
+        <v>0.01379592</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>36.00626031367766</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05271105758419704</v>
+      </c>
+      <c r="C33">
+        <v>2065.070688940495</v>
+      </c>
+      <c r="D33">
+        <v>2705.280688940495</v>
+      </c>
+      <c r="E33">
+        <v>465.91</v>
+      </c>
+      <c r="F33">
+        <v>809.41</v>
+      </c>
+      <c r="G33">
+        <v>169.2</v>
+      </c>
+      <c r="H33">
+        <v>2267.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>544.4</v>
+      </c>
+      <c r="K33">
+        <v>87.5</v>
+      </c>
+      <c r="L33">
+        <v>456.9</v>
+      </c>
+      <c r="M33">
+        <v>13.112442</v>
+      </c>
+      <c r="N33">
+        <v>443.787558</v>
+      </c>
+      <c r="O33">
+        <v>65.8580736072</v>
+      </c>
+      <c r="P33">
+        <v>377.9294843928</v>
+      </c>
+      <c r="Q33">
+        <v>465.4294843928</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07019467012202471</v>
+      </c>
+      <c r="T33">
+        <v>1.290141316144591</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.1484</v>
+      </c>
+      <c r="W33">
+        <v>0.01379592</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>34.84476804549451</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.0526906562308843</v>
+      </c>
+      <c r="C34">
+        <v>2039.914511636157</v>
+      </c>
+      <c r="D34">
+        <v>2706.234511636157</v>
+      </c>
+      <c r="E34">
+        <v>492.02</v>
+      </c>
+      <c r="F34">
+        <v>835.52</v>
+      </c>
+      <c r="G34">
+        <v>169.2</v>
+      </c>
+      <c r="H34">
+        <v>2267.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>544.4</v>
+      </c>
+      <c r="K34">
+        <v>87.5</v>
+      </c>
+      <c r="L34">
+        <v>456.9</v>
+      </c>
+      <c r="M34">
+        <v>13.535424</v>
+      </c>
+      <c r="N34">
+        <v>443.364576</v>
+      </c>
+      <c r="O34">
+        <v>65.7953030784</v>
+      </c>
+      <c r="P34">
+        <v>377.5692729216</v>
+      </c>
+      <c r="Q34">
+        <v>465.0692729216</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07099406151600633</v>
+      </c>
+      <c r="T34">
+        <v>1.30707757449166</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.1484</v>
+      </c>
+      <c r="W34">
+        <v>0.01379592</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>33.75586904407281</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.05267025487757155</v>
+      </c>
+      <c r="C35">
+        <v>2014.759007163012</v>
+      </c>
+      <c r="D35">
+        <v>2707.189007163012</v>
+      </c>
+      <c r="E35">
+        <v>518.13</v>
+      </c>
+      <c r="F35">
+        <v>861.63</v>
+      </c>
+      <c r="G35">
+        <v>169.2</v>
+      </c>
+      <c r="H35">
+        <v>2267.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>544.4</v>
+      </c>
+      <c r="K35">
+        <v>87.5</v>
+      </c>
+      <c r="L35">
+        <v>456.9</v>
+      </c>
+      <c r="M35">
+        <v>13.958406</v>
+      </c>
+      <c r="N35">
+        <v>442.941594</v>
+      </c>
+      <c r="O35">
+        <v>65.73253254960001</v>
+      </c>
+      <c r="P35">
+        <v>377.2090614504</v>
+      </c>
+      <c r="Q35">
+        <v>464.7090614504</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07181731533965904</v>
+      </c>
+      <c r="T35">
+        <v>1.324519392789386</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.1484</v>
+      </c>
+      <c r="W35">
+        <v>0.01379592</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>32.73296392152514</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.0526498535242588</v>
+      </c>
+      <c r="C36">
+        <v>1989.604176233238</v>
+      </c>
+      <c r="D36">
+        <v>2708.144176233238</v>
+      </c>
+      <c r="E36">
+        <v>544.24</v>
+      </c>
+      <c r="F36">
+        <v>887.74</v>
+      </c>
+      <c r="G36">
+        <v>169.2</v>
+      </c>
+      <c r="H36">
+        <v>2267.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>544.4</v>
+      </c>
+      <c r="K36">
+        <v>87.5</v>
+      </c>
+      <c r="L36">
+        <v>456.9</v>
+      </c>
+      <c r="M36">
+        <v>14.381388</v>
+      </c>
+      <c r="N36">
+        <v>442.518612</v>
+      </c>
+      <c r="O36">
+        <v>65.66976202079999</v>
+      </c>
+      <c r="P36">
+        <v>376.8488499791999</v>
+      </c>
+      <c r="Q36">
+        <v>464.3488499791999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07266551624887697</v>
+      </c>
+      <c r="T36">
+        <v>1.342489751035529</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.1484</v>
+      </c>
+      <c r="W36">
+        <v>0.01379592</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>31.77022968853911</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.05262945217094605</v>
+      </c>
+      <c r="C37">
+        <v>1964.450019560018</v>
+      </c>
+      <c r="D37">
+        <v>2709.100019560019</v>
+      </c>
+      <c r="E37">
+        <v>570.3500000000001</v>
+      </c>
+      <c r="F37">
+        <v>913.8500000000001</v>
+      </c>
+      <c r="G37">
+        <v>169.2</v>
+      </c>
+      <c r="H37">
+        <v>2267.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>544.4</v>
+      </c>
+      <c r="K37">
+        <v>87.5</v>
+      </c>
+      <c r="L37">
+        <v>456.9</v>
+      </c>
+      <c r="M37">
+        <v>14.80437</v>
+      </c>
+      <c r="N37">
+        <v>442.09563</v>
+      </c>
+      <c r="O37">
+        <v>65.60699149199999</v>
+      </c>
+      <c r="P37">
+        <v>376.488638508</v>
+      </c>
+      <c r="Q37">
+        <v>463.988638508</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07353981564760932</v>
+      </c>
+      <c r="T37">
+        <v>1.361013043381553</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.1484</v>
+      </c>
+      <c r="W37">
+        <v>0.01379592</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>30.86250884029513</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.05260905081763331</v>
+      </c>
+      <c r="C38">
+        <v>1939.296537857546</v>
+      </c>
+      <c r="D38">
+        <v>2710.056537857546</v>
+      </c>
+      <c r="E38">
+        <v>596.4599999999999</v>
+      </c>
+      <c r="F38">
+        <v>939.9599999999999</v>
+      </c>
+      <c r="G38">
+        <v>169.2</v>
+      </c>
+      <c r="H38">
+        <v>2267.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>544.4</v>
+      </c>
+      <c r="K38">
+        <v>87.5</v>
+      </c>
+      <c r="L38">
+        <v>456.9</v>
+      </c>
+      <c r="M38">
+        <v>15.22735199999999</v>
+      </c>
+      <c r="N38">
+        <v>441.672648</v>
+      </c>
+      <c r="O38">
+        <v>65.5442209632</v>
+      </c>
+      <c r="P38">
+        <v>376.1284270368</v>
+      </c>
+      <c r="Q38">
+        <v>463.6284270368</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07444143690255205</v>
+      </c>
+      <c r="T38">
+        <v>1.380115188613391</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.1484</v>
+      </c>
+      <c r="W38">
+        <v>0.01379592</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>30.00521692806472</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.05258864946432056</v>
+      </c>
+      <c r="C39">
+        <v>1914.143731841021</v>
+      </c>
+      <c r="D39">
+        <v>2711.013731841022</v>
+      </c>
+      <c r="E39">
+        <v>622.5699999999999</v>
+      </c>
+      <c r="F39">
+        <v>966.0699999999999</v>
+      </c>
+      <c r="G39">
+        <v>169.2</v>
+      </c>
+      <c r="H39">
+        <v>2267.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>544.4</v>
+      </c>
+      <c r="K39">
+        <v>87.5</v>
+      </c>
+      <c r="L39">
+        <v>456.9</v>
+      </c>
+      <c r="M39">
+        <v>15.650334</v>
+      </c>
+      <c r="N39">
+        <v>441.249666</v>
+      </c>
+      <c r="O39">
+        <v>65.4814504344</v>
+      </c>
+      <c r="P39">
+        <v>375.7682155656</v>
+      </c>
+      <c r="Q39">
+        <v>463.2682155656</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07537168105447707</v>
+      </c>
+      <c r="T39">
+        <v>1.399823751154175</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.1484</v>
+      </c>
+      <c r="W39">
+        <v>0.01379592</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>29.1942651191981</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.05256824811100781</v>
+      </c>
+      <c r="C40">
+        <v>1888.991602226655</v>
+      </c>
+      <c r="D40">
+        <v>2711.971602226655</v>
+      </c>
+      <c r="E40">
+        <v>648.6800000000001</v>
+      </c>
+      <c r="F40">
+        <v>992.1800000000001</v>
+      </c>
+      <c r="G40">
+        <v>169.2</v>
+      </c>
+      <c r="H40">
+        <v>2267.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>544.4</v>
+      </c>
+      <c r="K40">
+        <v>87.5</v>
+      </c>
+      <c r="L40">
+        <v>456.9</v>
+      </c>
+      <c r="M40">
+        <v>16.073316</v>
+      </c>
+      <c r="N40">
+        <v>440.826684</v>
+      </c>
+      <c r="O40">
+        <v>65.4186799056</v>
+      </c>
+      <c r="P40">
+        <v>375.4080040944</v>
+      </c>
+      <c r="Q40">
+        <v>462.9080040944</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.07633193308227067</v>
+      </c>
+      <c r="T40">
+        <v>1.420168073776921</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.1484</v>
+      </c>
+      <c r="W40">
+        <v>0.01379592</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>28.42599498448236</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.05254784675769506</v>
+      </c>
+      <c r="C41">
+        <v>1863.840149731671</v>
+      </c>
+      <c r="D41">
+        <v>2712.930149731671</v>
+      </c>
+      <c r="E41">
+        <v>674.7900000000001</v>
+      </c>
+      <c r="F41">
+        <v>1018.29</v>
+      </c>
+      <c r="G41">
+        <v>169.2</v>
+      </c>
+      <c r="H41">
+        <v>2267.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>544.4</v>
+      </c>
+      <c r="K41">
+        <v>87.5</v>
+      </c>
+      <c r="L41">
+        <v>456.9</v>
+      </c>
+      <c r="M41">
+        <v>16.496298</v>
+      </c>
+      <c r="N41">
+        <v>440.403702</v>
+      </c>
+      <c r="O41">
+        <v>65.3559093768</v>
+      </c>
+      <c r="P41">
+        <v>375.0477926231999</v>
+      </c>
+      <c r="Q41">
+        <v>462.5477926231999</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.07732366878310666</v>
+      </c>
+      <c r="T41">
+        <v>1.441179423370904</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.1484</v>
+      </c>
+      <c r="W41">
+        <v>0.01379592</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>27.69712331821358</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.05252744540438231</v>
+      </c>
+      <c r="C42">
+        <v>1838.689375074308</v>
+      </c>
+      <c r="D42">
+        <v>2713.889375074308</v>
+      </c>
+      <c r="E42">
+        <v>700.9000000000001</v>
+      </c>
+      <c r="F42">
+        <v>1044.4</v>
+      </c>
+      <c r="G42">
+        <v>169.2</v>
+      </c>
+      <c r="H42">
+        <v>2267.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>544.4</v>
+      </c>
+      <c r="K42">
+        <v>87.5</v>
+      </c>
+      <c r="L42">
+        <v>456.9</v>
+      </c>
+      <c r="M42">
+        <v>16.91928</v>
+      </c>
+      <c r="N42">
+        <v>439.98072</v>
+      </c>
+      <c r="O42">
+        <v>65.293138848</v>
+      </c>
+      <c r="P42">
+        <v>374.687581152</v>
+      </c>
+      <c r="Q42">
+        <v>462.187581152</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.07834846234063719</v>
+      </c>
+      <c r="T42">
+        <v>1.462891151284686</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.1484</v>
+      </c>
+      <c r="W42">
+        <v>0.01379592</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>27.00469523525824</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.05250704405106957</v>
+      </c>
+      <c r="C43">
+        <v>1813.53927897382</v>
+      </c>
+      <c r="D43">
+        <v>2714.84927897382</v>
+      </c>
+      <c r="E43">
+        <v>727.01</v>
+      </c>
+      <c r="F43">
+        <v>1070.51</v>
+      </c>
+      <c r="G43">
+        <v>169.2</v>
+      </c>
+      <c r="H43">
+        <v>2267.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>544.4</v>
+      </c>
+      <c r="K43">
+        <v>87.5</v>
+      </c>
+      <c r="L43">
+        <v>456.9</v>
+      </c>
+      <c r="M43">
+        <v>17.34226199999999</v>
+      </c>
+      <c r="N43">
+        <v>439.557738</v>
+      </c>
+      <c r="O43">
+        <v>65.2303683192</v>
+      </c>
+      <c r="P43">
+        <v>374.3273696808</v>
+      </c>
+      <c r="Q43">
+        <v>461.8273696808</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.07940799466282979</v>
+      </c>
+      <c r="T43">
+        <v>1.485338869975207</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.1484</v>
+      </c>
+      <c r="W43">
+        <v>0.01379592</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>26.34604413195926</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.05248664269775682</v>
+      </c>
+      <c r="C44">
+        <v>1788.389862150479</v>
+      </c>
+      <c r="D44">
+        <v>2715.809862150479</v>
+      </c>
+      <c r="E44">
+        <v>753.1199999999999</v>
+      </c>
+      <c r="F44">
+        <v>1096.62</v>
+      </c>
+      <c r="G44">
+        <v>169.2</v>
+      </c>
+      <c r="H44">
+        <v>2267.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>544.4</v>
+      </c>
+      <c r="K44">
+        <v>87.5</v>
+      </c>
+      <c r="L44">
+        <v>456.9</v>
+      </c>
+      <c r="M44">
+        <v>17.76524399999999</v>
+      </c>
+      <c r="N44">
+        <v>439.134756</v>
+      </c>
+      <c r="O44">
+        <v>65.1675977904</v>
+      </c>
+      <c r="P44">
+        <v>373.9671582096</v>
+      </c>
+      <c r="Q44">
+        <v>461.4671582096</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08050406258233934</v>
+      </c>
+      <c r="T44">
+        <v>1.508560647930918</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.1484</v>
+      </c>
+      <c r="W44">
+        <v>0.01379592</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>25.71875736691262</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.05246624134444407</v>
+      </c>
+      <c r="C45">
+        <v>1763.241125325578</v>
+      </c>
+      <c r="D45">
+        <v>2716.771125325578</v>
+      </c>
+      <c r="E45">
+        <v>779.23</v>
+      </c>
+      <c r="F45">
+        <v>1122.73</v>
+      </c>
+      <c r="G45">
+        <v>169.2</v>
+      </c>
+      <c r="H45">
+        <v>2267.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>544.4</v>
+      </c>
+      <c r="K45">
+        <v>87.5</v>
+      </c>
+      <c r="L45">
+        <v>456.9</v>
+      </c>
+      <c r="M45">
+        <v>18.188226</v>
+      </c>
+      <c r="N45">
+        <v>438.711774</v>
+      </c>
+      <c r="O45">
+        <v>65.10482726159999</v>
+      </c>
+      <c r="P45">
+        <v>373.6069467384</v>
+      </c>
+      <c r="Q45">
+        <v>461.1069467384</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08163858902534048</v>
+      </c>
+      <c r="T45">
+        <v>1.532597225113146</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.1484</v>
+      </c>
+      <c r="W45">
+        <v>0.01379592</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>25.12064673047279</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.05244583999113133</v>
+      </c>
+      <c r="C46">
+        <v>1738.093069221431</v>
+      </c>
+      <c r="D46">
+        <v>2717.733069221431</v>
+      </c>
+      <c r="E46">
+        <v>805.3399999999999</v>
+      </c>
+      <c r="F46">
+        <v>1148.84</v>
+      </c>
+      <c r="G46">
+        <v>169.2</v>
+      </c>
+      <c r="H46">
+        <v>2267.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>544.4</v>
+      </c>
+      <c r="K46">
+        <v>87.5</v>
+      </c>
+      <c r="L46">
+        <v>456.9</v>
+      </c>
+      <c r="M46">
+        <v>18.61120799999999</v>
+      </c>
+      <c r="N46">
+        <v>438.288792</v>
+      </c>
+      <c r="O46">
+        <v>65.04205673280001</v>
+      </c>
+      <c r="P46">
+        <v>373.2467352672</v>
+      </c>
+      <c r="Q46">
+        <v>460.7467352672</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08281363426987737</v>
+      </c>
+      <c r="T46">
+        <v>1.557492251480453</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.1484</v>
+      </c>
+      <c r="W46">
+        <v>0.01379592</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>24.54972294114386</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.05242543863781858</v>
+      </c>
+      <c r="C47">
+        <v>1712.945694561374</v>
+      </c>
+      <c r="D47">
+        <v>2718.695694561374</v>
+      </c>
+      <c r="E47">
+        <v>831.45</v>
+      </c>
+      <c r="F47">
+        <v>1174.95</v>
+      </c>
+      <c r="G47">
+        <v>169.2</v>
+      </c>
+      <c r="H47">
+        <v>2267.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>544.4</v>
+      </c>
+      <c r="K47">
+        <v>87.5</v>
+      </c>
+      <c r="L47">
+        <v>456.9</v>
+      </c>
+      <c r="M47">
+        <v>19.03419</v>
+      </c>
+      <c r="N47">
+        <v>437.86581</v>
+      </c>
+      <c r="O47">
+        <v>64.979286204</v>
+      </c>
+      <c r="P47">
+        <v>372.886523796</v>
+      </c>
+      <c r="Q47">
+        <v>460.386523796</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08403140843239741</v>
+      </c>
+      <c r="T47">
+        <v>1.583292551533843</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.1484</v>
+      </c>
+      <c r="W47">
+        <v>0.01379592</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>24.00417354245177</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.05240503728450583</v>
+      </c>
+      <c r="C48">
+        <v>1687.79900206977</v>
+      </c>
+      <c r="D48">
+        <v>2719.65900206977</v>
+      </c>
+      <c r="E48">
+        <v>857.5599999999999</v>
+      </c>
+      <c r="F48">
+        <v>1201.06</v>
+      </c>
+      <c r="G48">
+        <v>169.2</v>
+      </c>
+      <c r="H48">
+        <v>2267.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>544.4</v>
+      </c>
+      <c r="K48">
+        <v>87.5</v>
+      </c>
+      <c r="L48">
+        <v>456.9</v>
+      </c>
+      <c r="M48">
+        <v>19.45717199999999</v>
+      </c>
+      <c r="N48">
+        <v>437.442828</v>
+      </c>
+      <c r="O48">
+        <v>64.9165156752</v>
+      </c>
+      <c r="P48">
+        <v>372.5263123248</v>
+      </c>
+      <c r="Q48">
+        <v>460.0263123248</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.08529428534167746</v>
+      </c>
+      <c r="T48">
+        <v>1.610048418255879</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.1484</v>
+      </c>
+      <c r="W48">
+        <v>0.01379592</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>23.48234368283326</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.05238463593119308</v>
+      </c>
+      <c r="C49">
+        <v>1662.652992472008</v>
+      </c>
+      <c r="D49">
+        <v>2720.622992472008</v>
+      </c>
+      <c r="E49">
+        <v>883.6700000000001</v>
+      </c>
+      <c r="F49">
+        <v>1227.17</v>
+      </c>
+      <c r="G49">
+        <v>169.2</v>
+      </c>
+      <c r="H49">
+        <v>2267.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>544.4</v>
+      </c>
+      <c r="K49">
+        <v>87.5</v>
+      </c>
+      <c r="L49">
+        <v>456.9</v>
+      </c>
+      <c r="M49">
+        <v>19.880154</v>
+      </c>
+      <c r="N49">
+        <v>437.019846</v>
+      </c>
+      <c r="O49">
+        <v>64.8537451464</v>
+      </c>
+      <c r="P49">
+        <v>372.1661008536</v>
+      </c>
+      <c r="Q49">
+        <v>459.6661008536</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.08660481798338317</v>
+      </c>
+      <c r="T49">
+        <v>1.637813940325915</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.1484</v>
+      </c>
+      <c r="W49">
+        <v>0.01379592</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>22.98271934915595</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.05236423457788032</v>
+      </c>
+      <c r="C50">
+        <v>1637.507666494506</v>
+      </c>
+      <c r="D50">
+        <v>2721.587666494506</v>
+      </c>
+      <c r="E50">
+        <v>909.78</v>
+      </c>
+      <c r="F50">
+        <v>1253.28</v>
+      </c>
+      <c r="G50">
+        <v>169.2</v>
+      </c>
+      <c r="H50">
+        <v>2267.5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>544.4</v>
+      </c>
+      <c r="K50">
+        <v>87.5</v>
+      </c>
+      <c r="L50">
+        <v>456.9</v>
+      </c>
+      <c r="M50">
+        <v>20.30313599999999</v>
+      </c>
+      <c r="N50">
+        <v>436.596864</v>
+      </c>
+      <c r="O50">
+        <v>64.7909746176</v>
+      </c>
+      <c r="P50">
+        <v>371.8058893824</v>
+      </c>
+      <c r="Q50">
+        <v>459.3058893824</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.08796575572669293</v>
+      </c>
+      <c r="T50">
+        <v>1.666647367090952</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.1484</v>
+      </c>
+      <c r="W50">
+        <v>0.01379592</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>22.50391269604854</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.05234383322456758</v>
+      </c>
+      <c r="C51">
+        <v>1612.363024864713</v>
+      </c>
+      <c r="D51">
+        <v>2722.553024864713</v>
+      </c>
+      <c r="E51">
+        <v>935.8899999999999</v>
+      </c>
+      <c r="F51">
+        <v>1279.39</v>
+      </c>
+      <c r="G51">
+        <v>169.2</v>
+      </c>
+      <c r="H51">
+        <v>2267.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>544.4</v>
+      </c>
+      <c r="K51">
+        <v>87.5</v>
+      </c>
+      <c r="L51">
+        <v>456.9</v>
+      </c>
+      <c r="M51">
+        <v>20.72611799999999</v>
+      </c>
+      <c r="N51">
+        <v>436.173882</v>
+      </c>
+      <c r="O51">
+        <v>64.7282040888</v>
+      </c>
+      <c r="P51">
+        <v>371.4456779112</v>
+      </c>
+      <c r="Q51">
+        <v>458.9456779112</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.08938006357758349</v>
+      </c>
+      <c r="T51">
+        <v>1.696611516474227</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.1484</v>
+      </c>
+      <c r="W51">
+        <v>0.01379592</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>22.04464917163939</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.05232343187125484</v>
+      </c>
+      <c r="C52">
+        <v>1587.21906831111</v>
+      </c>
+      <c r="D52">
+        <v>2723.51906831111</v>
+      </c>
+      <c r="E52">
+        <v>962</v>
+      </c>
+      <c r="F52">
+        <v>1305.5</v>
+      </c>
+      <c r="G52">
+        <v>169.2</v>
+      </c>
+      <c r="H52">
+        <v>2267.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>544.4</v>
+      </c>
+      <c r="K52">
+        <v>87.5</v>
+      </c>
+      <c r="L52">
+        <v>456.9</v>
+      </c>
+      <c r="M52">
+        <v>21.14909999999999</v>
+      </c>
+      <c r="N52">
+        <v>435.7509</v>
+      </c>
+      <c r="O52">
+        <v>64.66543356</v>
+      </c>
+      <c r="P52">
+        <v>371.08546644</v>
+      </c>
+      <c r="Q52">
+        <v>458.58546644</v>
+      </c>
+      <c r="R52">
         <v>1</v>
       </c>
-      <c r="U3">
-        <v>49.2</v>
-      </c>
-      <c r="V3">
-        <v>0.179890310786106</v>
-      </c>
-      <c r="W3">
-        <v>-0.6105139938278175</v>
-      </c>
-      <c r="X3">
-        <v>0.1838357482684904</v>
-      </c>
-      <c r="Y3">
-        <v>-0.7943497420963079</v>
-      </c>
-      <c r="Z3">
-        <v>1.903784919393994</v>
-      </c>
-      <c r="AA3">
-        <v>-0.03233288187752088</v>
-      </c>
-      <c r="AB3">
-        <v>0.1055219459342081</v>
-      </c>
-      <c r="AC3">
-        <v>-0.137854827811729</v>
-      </c>
-      <c r="AD3">
-        <v>838</v>
-      </c>
-      <c r="AE3">
-        <v>112.3450314838446</v>
-      </c>
-      <c r="AF3">
-        <v>950.3450314838447</v>
-      </c>
-      <c r="AG3">
-        <v>901.1450314838446</v>
-      </c>
-      <c r="AH3">
-        <v>0.7765239936723064</v>
-      </c>
-      <c r="AI3">
-        <v>0.7957039267816467</v>
-      </c>
-      <c r="AJ3">
-        <v>0.7671637025063588</v>
-      </c>
-      <c r="AK3">
-        <v>0.7869265522779834</v>
-      </c>
-      <c r="AL3">
-        <v>46.7</v>
-      </c>
-      <c r="AM3">
-        <v>42.45</v>
-      </c>
-      <c r="AN3">
-        <v>11.81946403385049</v>
-      </c>
-      <c r="AO3">
-        <v>-1.079229122055674</v>
-      </c>
-      <c r="AP3">
-        <v>12.710085070294</v>
-      </c>
-      <c r="AQ3">
-        <v>-1.187279151943463</v>
+      <c r="S52">
+        <v>0.09085094374250967</v>
+      </c>
+      <c r="T52">
+        <v>1.727774231832832</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.1484</v>
+      </c>
+      <c r="W52">
+        <v>0.01379592</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>21.6037561882066</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.05230303051794209</v>
+      </c>
+      <c r="C53">
+        <v>1562.075797563213</v>
+      </c>
+      <c r="D53">
+        <v>2724.485797563213</v>
+      </c>
+      <c r="E53">
+        <v>988.1100000000001</v>
+      </c>
+      <c r="F53">
+        <v>1331.61</v>
+      </c>
+      <c r="G53">
+        <v>169.2</v>
+      </c>
+      <c r="H53">
+        <v>2267.5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>544.4</v>
+      </c>
+      <c r="K53">
+        <v>87.5</v>
+      </c>
+      <c r="L53">
+        <v>456.9</v>
+      </c>
+      <c r="M53">
+        <v>21.57208199999999</v>
+      </c>
+      <c r="N53">
+        <v>435.327918</v>
+      </c>
+      <c r="O53">
+        <v>64.6026630312</v>
+      </c>
+      <c r="P53">
+        <v>370.7252549688</v>
+      </c>
+      <c r="Q53">
+        <v>458.2252549688</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09238185983253487</v>
+      </c>
+      <c r="T53">
+        <v>1.760208894757095</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.1484</v>
+      </c>
+      <c r="W53">
+        <v>0.01379592</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>21.18015312569274</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.05228262916462934</v>
+      </c>
+      <c r="C54">
+        <v>1536.933213351573</v>
+      </c>
+      <c r="D54">
+        <v>2725.453213351573</v>
+      </c>
+      <c r="E54">
+        <v>1014.22</v>
+      </c>
+      <c r="F54">
+        <v>1357.72</v>
+      </c>
+      <c r="G54">
+        <v>169.2</v>
+      </c>
+      <c r="H54">
+        <v>2267.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>544.4</v>
+      </c>
+      <c r="K54">
+        <v>87.5</v>
+      </c>
+      <c r="L54">
+        <v>456.9</v>
+      </c>
+      <c r="M54">
+        <v>21.995064</v>
+      </c>
+      <c r="N54">
+        <v>434.904936</v>
+      </c>
+      <c r="O54">
+        <v>64.53989250239999</v>
+      </c>
+      <c r="P54">
+        <v>370.3650434976</v>
+      </c>
+      <c r="Q54">
+        <v>457.8650434976</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.0939765640929778</v>
+      </c>
+      <c r="T54">
+        <v>1.793995001969869</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.1484</v>
+      </c>
+      <c r="W54">
+        <v>0.01379592</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>20.77284248866019</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.05226222781131659</v>
+      </c>
+      <c r="C55">
+        <v>1511.791316407781</v>
+      </c>
+      <c r="D55">
+        <v>2726.421316407781</v>
+      </c>
+      <c r="E55">
+        <v>1040.33</v>
+      </c>
+      <c r="F55">
+        <v>1383.83</v>
+      </c>
+      <c r="G55">
+        <v>169.2</v>
+      </c>
+      <c r="H55">
+        <v>2267.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>544.4</v>
+      </c>
+      <c r="K55">
+        <v>87.5</v>
+      </c>
+      <c r="L55">
+        <v>456.9</v>
+      </c>
+      <c r="M55">
+        <v>22.418046</v>
+      </c>
+      <c r="N55">
+        <v>434.481954</v>
+      </c>
+      <c r="O55">
+        <v>64.47712197359999</v>
+      </c>
+      <c r="P55">
+        <v>370.0048320264</v>
+      </c>
+      <c r="Q55">
+        <v>457.5048320264</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.09563912810918425</v>
+      </c>
+      <c r="T55">
+        <v>1.829218815872548</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.1484</v>
+      </c>
+      <c r="W55">
+        <v>0.01379592</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>20.38090206434584</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.05224182645800383</v>
+      </c>
+      <c r="C56">
+        <v>1486.650107464466</v>
+      </c>
+      <c r="D56">
+        <v>2727.390107464466</v>
+      </c>
+      <c r="E56">
+        <v>1066.44</v>
+      </c>
+      <c r="F56">
+        <v>1409.94</v>
+      </c>
+      <c r="G56">
+        <v>169.2</v>
+      </c>
+      <c r="H56">
+        <v>2267.5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>544.4</v>
+      </c>
+      <c r="K56">
+        <v>87.5</v>
+      </c>
+      <c r="L56">
+        <v>456.9</v>
+      </c>
+      <c r="M56">
+        <v>22.84102799999999</v>
+      </c>
+      <c r="N56">
+        <v>434.058972</v>
+      </c>
+      <c r="O56">
+        <v>64.4143514448</v>
+      </c>
+      <c r="P56">
+        <v>369.6446205552</v>
+      </c>
+      <c r="Q56">
+        <v>457.1446205552</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.09737397751739965</v>
+      </c>
+      <c r="T56">
+        <v>1.865974099944908</v>
+      </c>
+      <c r="U56">
+        <v>0.0162</v>
+      </c>
+      <c r="V56">
+        <v>0.1484</v>
+      </c>
+      <c r="W56">
+        <v>0.01379592</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>20.00347795204314</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.0522214251046911</v>
+      </c>
+      <c r="C57">
+        <v>1461.509587255297</v>
+      </c>
+      <c r="D57">
+        <v>2728.359587255298</v>
+      </c>
+      <c r="E57">
+        <v>1092.55</v>
+      </c>
+      <c r="F57">
+        <v>1436.05</v>
+      </c>
+      <c r="G57">
+        <v>169.2</v>
+      </c>
+      <c r="H57">
+        <v>2267.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>544.4</v>
+      </c>
+      <c r="K57">
+        <v>87.5</v>
+      </c>
+      <c r="L57">
+        <v>456.9</v>
+      </c>
+      <c r="M57">
+        <v>23.26401</v>
+      </c>
+      <c r="N57">
+        <v>433.63599</v>
+      </c>
+      <c r="O57">
+        <v>64.351580916</v>
+      </c>
+      <c r="P57">
+        <v>369.284409084</v>
+      </c>
+      <c r="Q57">
+        <v>456.784409084</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.099185931343758</v>
+      </c>
+      <c r="T57">
+        <v>1.904362952198263</v>
+      </c>
+      <c r="U57">
+        <v>0.0162</v>
+      </c>
+      <c r="V57">
+        <v>0.1484</v>
+      </c>
+      <c r="W57">
+        <v>0.01379592</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>19.63977835291509</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.05220102375137834</v>
+      </c>
+      <c r="C58">
+        <v>1436.369756514993</v>
+      </c>
+      <c r="D58">
+        <v>2729.329756514993</v>
+      </c>
+      <c r="E58">
+        <v>1118.66</v>
+      </c>
+      <c r="F58">
+        <v>1462.16</v>
+      </c>
+      <c r="G58">
+        <v>169.2</v>
+      </c>
+      <c r="H58">
+        <v>2267.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>544.4</v>
+      </c>
+      <c r="K58">
+        <v>87.5</v>
+      </c>
+      <c r="L58">
+        <v>456.9</v>
+      </c>
+      <c r="M58">
+        <v>23.686992</v>
+      </c>
+      <c r="N58">
+        <v>433.213008</v>
+      </c>
+      <c r="O58">
+        <v>64.2888103872</v>
+      </c>
+      <c r="P58">
+        <v>368.9241976128</v>
+      </c>
+      <c r="Q58">
+        <v>456.4241976128</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1010802467076781</v>
+      </c>
+      <c r="T58">
+        <v>1.944496752281315</v>
+      </c>
+      <c r="U58">
+        <v>0.0162</v>
+      </c>
+      <c r="V58">
+        <v>0.1484</v>
+      </c>
+      <c r="W58">
+        <v>0.01379592</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>19.28906802518446</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.0521806223980656</v>
+      </c>
+      <c r="C59">
+        <v>1411.230615979311</v>
+      </c>
+      <c r="D59">
+        <v>2730.300615979312</v>
+      </c>
+      <c r="E59">
+        <v>1144.77</v>
+      </c>
+      <c r="F59">
+        <v>1488.27</v>
+      </c>
+      <c r="G59">
+        <v>169.2</v>
+      </c>
+      <c r="H59">
+        <v>2267.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>544.4</v>
+      </c>
+      <c r="K59">
+        <v>87.5</v>
+      </c>
+      <c r="L59">
+        <v>456.9</v>
+      </c>
+      <c r="M59">
+        <v>24.109974</v>
+      </c>
+      <c r="N59">
+        <v>432.790026</v>
+      </c>
+      <c r="O59">
+        <v>64.2260398584</v>
+      </c>
+      <c r="P59">
+        <v>368.5639861416</v>
+      </c>
+      <c r="Q59">
+        <v>456.0639861416</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1030626697629433</v>
+      </c>
+      <c r="T59">
+        <v>1.986497240740323</v>
+      </c>
+      <c r="U59">
+        <v>0.0162</v>
+      </c>
+      <c r="V59">
+        <v>0.1484</v>
+      </c>
+      <c r="W59">
+        <v>0.01379592</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>18.95066332298824</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.05216022104475285</v>
+      </c>
+      <c r="C60">
+        <v>1386.092166385061</v>
+      </c>
+      <c r="D60">
+        <v>2731.272166385061</v>
+      </c>
+      <c r="E60">
+        <v>1170.88</v>
+      </c>
+      <c r="F60">
+        <v>1514.38</v>
+      </c>
+      <c r="G60">
+        <v>169.2</v>
+      </c>
+      <c r="H60">
+        <v>2267.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>544.4</v>
+      </c>
+      <c r="K60">
+        <v>87.5</v>
+      </c>
+      <c r="L60">
+        <v>456.9</v>
+      </c>
+      <c r="M60">
+        <v>24.53295599999999</v>
+      </c>
+      <c r="N60">
+        <v>432.367044</v>
+      </c>
+      <c r="O60">
+        <v>64.1632693296</v>
+      </c>
+      <c r="P60">
+        <v>368.2037746704</v>
+      </c>
+      <c r="Q60">
+        <v>455.7037746704</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1051394939160782</v>
+      </c>
+      <c r="T60">
+        <v>2.030497752459284</v>
+      </c>
+      <c r="U60">
+        <v>0.0162</v>
+      </c>
+      <c r="V60">
+        <v>0.1484</v>
+      </c>
+      <c r="W60">
+        <v>0.01379592</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>18.62392774845396</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.0521398196914401</v>
+      </c>
+      <c r="C61">
+        <v>1360.954408470096</v>
+      </c>
+      <c r="D61">
+        <v>2732.244408470096</v>
+      </c>
+      <c r="E61">
+        <v>1196.99</v>
+      </c>
+      <c r="F61">
+        <v>1540.49</v>
+      </c>
+      <c r="G61">
+        <v>169.2</v>
+      </c>
+      <c r="H61">
+        <v>2267.5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>544.4</v>
+      </c>
+      <c r="K61">
+        <v>87.5</v>
+      </c>
+      <c r="L61">
+        <v>456.9</v>
+      </c>
+      <c r="M61">
+        <v>24.95593799999999</v>
+      </c>
+      <c r="N61">
+        <v>431.944062</v>
+      </c>
+      <c r="O61">
+        <v>64.1004988008</v>
+      </c>
+      <c r="P61">
+        <v>367.8435631992</v>
+      </c>
+      <c r="Q61">
+        <v>455.3435631992</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1073176265644881</v>
+      </c>
+      <c r="T61">
+        <v>2.07664463060356</v>
+      </c>
+      <c r="U61">
+        <v>0.0162</v>
+      </c>
+      <c r="V61">
+        <v>0.1484</v>
+      </c>
+      <c r="W61">
+        <v>0.01379592</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>18.30826795610728</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.05211941833812736</v>
+      </c>
+      <c r="C62">
+        <v>1335.817342973326</v>
+      </c>
+      <c r="D62">
+        <v>2733.217342973326</v>
+      </c>
+      <c r="E62">
+        <v>1223.1</v>
+      </c>
+      <c r="F62">
+        <v>1566.6</v>
+      </c>
+      <c r="G62">
+        <v>169.2</v>
+      </c>
+      <c r="H62">
+        <v>2267.5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>544.4</v>
+      </c>
+      <c r="K62">
+        <v>87.5</v>
+      </c>
+      <c r="L62">
+        <v>456.9</v>
+      </c>
+      <c r="M62">
+        <v>25.37891999999999</v>
+      </c>
+      <c r="N62">
+        <v>431.52108</v>
+      </c>
+      <c r="O62">
+        <v>64.037728272</v>
+      </c>
+      <c r="P62">
+        <v>367.483351728</v>
+      </c>
+      <c r="Q62">
+        <v>454.983351728</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1096046658453184</v>
+      </c>
+      <c r="T62">
+        <v>2.12509885265505</v>
+      </c>
+      <c r="U62">
+        <v>0.0162</v>
+      </c>
+      <c r="V62">
+        <v>0.1484</v>
+      </c>
+      <c r="W62">
+        <v>0.01379592</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>18.00313015683883</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.0520990169848146</v>
+      </c>
+      <c r="C63">
+        <v>1310.680970634711</v>
+      </c>
+      <c r="D63">
+        <v>2734.190970634711</v>
+      </c>
+      <c r="E63">
+        <v>1249.21</v>
+      </c>
+      <c r="F63">
+        <v>1592.71</v>
+      </c>
+      <c r="G63">
+        <v>169.2</v>
+      </c>
+      <c r="H63">
+        <v>2267.5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>544.4</v>
+      </c>
+      <c r="K63">
+        <v>87.5</v>
+      </c>
+      <c r="L63">
+        <v>456.9</v>
+      </c>
+      <c r="M63">
+        <v>25.80190199999999</v>
+      </c>
+      <c r="N63">
+        <v>431.098098</v>
+      </c>
+      <c r="O63">
+        <v>63.9749577432</v>
+      </c>
+      <c r="P63">
+        <v>367.1231402568</v>
+      </c>
+      <c r="Q63">
+        <v>454.6231402568</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1120089891918323</v>
+      </c>
+      <c r="T63">
+        <v>2.176037906606617</v>
+      </c>
+      <c r="U63">
+        <v>0.0162</v>
+      </c>
+      <c r="V63">
+        <v>0.1484</v>
+      </c>
+      <c r="W63">
+        <v>0.01379592</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>17.70799687557918</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.05207861563150185</v>
+      </c>
+      <c r="C64">
+        <v>1285.545292195265</v>
+      </c>
+      <c r="D64">
+        <v>2735.165292195265</v>
+      </c>
+      <c r="E64">
+        <v>1275.32</v>
+      </c>
+      <c r="F64">
+        <v>1618.82</v>
+      </c>
+      <c r="G64">
+        <v>169.2</v>
+      </c>
+      <c r="H64">
+        <v>2267.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>544.4</v>
+      </c>
+      <c r="K64">
+        <v>87.5</v>
+      </c>
+      <c r="L64">
+        <v>456.9</v>
+      </c>
+      <c r="M64">
+        <v>26.22488399999999</v>
+      </c>
+      <c r="N64">
+        <v>430.675116</v>
+      </c>
+      <c r="O64">
+        <v>63.9121872144</v>
+      </c>
+      <c r="P64">
+        <v>366.7629287856</v>
+      </c>
+      <c r="Q64">
+        <v>454.2629287856</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1145398558723733</v>
+      </c>
+      <c r="T64">
+        <v>2.229657963397739</v>
+      </c>
+      <c r="U64">
+        <v>0.0162</v>
+      </c>
+      <c r="V64">
+        <v>0.1484</v>
+      </c>
+      <c r="W64">
+        <v>0.01379592</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>17.42238402274726</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.0520582142781891</v>
+      </c>
+      <c r="C65">
+        <v>1260.410308397062</v>
+      </c>
+      <c r="D65">
+        <v>2736.140308397062</v>
+      </c>
+      <c r="E65">
+        <v>1301.43</v>
+      </c>
+      <c r="F65">
+        <v>1644.93</v>
+      </c>
+      <c r="G65">
+        <v>169.2</v>
+      </c>
+      <c r="H65">
+        <v>2267.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>544.4</v>
+      </c>
+      <c r="K65">
+        <v>87.5</v>
+      </c>
+      <c r="L65">
+        <v>456.9</v>
+      </c>
+      <c r="M65">
+        <v>26.64786599999999</v>
+      </c>
+      <c r="N65">
+        <v>430.252134</v>
+      </c>
+      <c r="O65">
+        <v>63.8494166856</v>
+      </c>
+      <c r="P65">
+        <v>366.4027173144</v>
+      </c>
+      <c r="Q65">
+        <v>453.9027173144</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1172075261572678</v>
+      </c>
+      <c r="T65">
+        <v>2.286176401637031</v>
+      </c>
+      <c r="U65">
+        <v>0.0162</v>
+      </c>
+      <c r="V65">
+        <v>0.1484</v>
+      </c>
+      <c r="W65">
+        <v>0.01379592</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>17.14583824460841</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.05203781292487636</v>
+      </c>
+      <c r="C66">
+        <v>1235.27601998323</v>
+      </c>
+      <c r="D66">
+        <v>2737.11601998323</v>
+      </c>
+      <c r="E66">
+        <v>1327.54</v>
+      </c>
+      <c r="F66">
+        <v>1671.04</v>
+      </c>
+      <c r="G66">
+        <v>169.2</v>
+      </c>
+      <c r="H66">
+        <v>2267.5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>544.4</v>
+      </c>
+      <c r="K66">
+        <v>87.5</v>
+      </c>
+      <c r="L66">
+        <v>456.9</v>
+      </c>
+      <c r="M66">
+        <v>27.07084799999999</v>
+      </c>
+      <c r="N66">
+        <v>429.829152</v>
+      </c>
+      <c r="O66">
+        <v>63.7866461568</v>
+      </c>
+      <c r="P66">
+        <v>366.0425058432</v>
+      </c>
+      <c r="Q66">
+        <v>453.5425058432</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1200234003468788</v>
+      </c>
+      <c r="T66">
+        <v>2.345834753111839</v>
+      </c>
+      <c r="U66">
+        <v>0.0162</v>
+      </c>
+      <c r="V66">
+        <v>0.1484</v>
+      </c>
+      <c r="W66">
+        <v>0.01379592</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>16.8779345220364</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.05201741157156362</v>
+      </c>
+      <c r="C67">
+        <v>1210.14242769796</v>
+      </c>
+      <c r="D67">
+        <v>2738.09242769796</v>
+      </c>
+      <c r="E67">
+        <v>1353.65</v>
+      </c>
+      <c r="F67">
+        <v>1697.15</v>
+      </c>
+      <c r="G67">
+        <v>169.2</v>
+      </c>
+      <c r="H67">
+        <v>2267.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>544.4</v>
+      </c>
+      <c r="K67">
+        <v>87.5</v>
+      </c>
+      <c r="L67">
+        <v>456.9</v>
+      </c>
+      <c r="M67">
+        <v>27.49383</v>
+      </c>
+      <c r="N67">
+        <v>429.40617</v>
+      </c>
+      <c r="O67">
+        <v>63.72387562799999</v>
+      </c>
+      <c r="P67">
+        <v>365.682294372</v>
+      </c>
+      <c r="Q67">
+        <v>453.182294372</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1230001816330389</v>
+      </c>
+      <c r="T67">
+        <v>2.40890215324235</v>
+      </c>
+      <c r="U67">
+        <v>0.0162</v>
+      </c>
+      <c r="V67">
+        <v>0.1484</v>
+      </c>
+      <c r="W67">
+        <v>0.01379592</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>16.61827399092815</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.05199701021825086</v>
+      </c>
+      <c r="C68">
+        <v>1185.009532286507</v>
+      </c>
+      <c r="D68">
+        <v>2739.069532286507</v>
+      </c>
+      <c r="E68">
+        <v>1379.76</v>
+      </c>
+      <c r="F68">
+        <v>1723.26</v>
+      </c>
+      <c r="G68">
+        <v>169.2</v>
+      </c>
+      <c r="H68">
+        <v>2267.5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>544.4</v>
+      </c>
+      <c r="K68">
+        <v>87.5</v>
+      </c>
+      <c r="L68">
+        <v>456.9</v>
+      </c>
+      <c r="M68">
+        <v>27.91681199999999</v>
+      </c>
+      <c r="N68">
+        <v>428.983188</v>
+      </c>
+      <c r="O68">
+        <v>63.6611050992</v>
+      </c>
+      <c r="P68">
+        <v>365.3220829008</v>
+      </c>
+      <c r="Q68">
+        <v>452.8220829008</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1261520677007378</v>
+      </c>
+      <c r="T68">
+        <v>2.475679400439361</v>
+      </c>
+      <c r="U68">
+        <v>0.0162</v>
+      </c>
+      <c r="V68">
+        <v>0.1484</v>
+      </c>
+      <c r="W68">
+        <v>0.01379592</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>16.36648196076257</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.05197660886493812</v>
+      </c>
+      <c r="C69">
+        <v>1159.877334495184</v>
+      </c>
+      <c r="D69">
+        <v>2740.047334495184</v>
+      </c>
+      <c r="E69">
+        <v>1405.87</v>
+      </c>
+      <c r="F69">
+        <v>1749.37</v>
+      </c>
+      <c r="G69">
+        <v>169.2</v>
+      </c>
+      <c r="H69">
+        <v>2267.5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>544.4</v>
+      </c>
+      <c r="K69">
+        <v>87.5</v>
+      </c>
+      <c r="L69">
+        <v>456.9</v>
+      </c>
+      <c r="M69">
+        <v>28.33979399999999</v>
+      </c>
+      <c r="N69">
+        <v>428.560206</v>
+      </c>
+      <c r="O69">
+        <v>63.5983345704</v>
+      </c>
+      <c r="P69">
+        <v>364.9618714296</v>
+      </c>
+      <c r="Q69">
+        <v>452.4618714296</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1294949771664792</v>
+      </c>
+      <c r="T69">
+        <v>2.546503753527101</v>
+      </c>
+      <c r="U69">
+        <v>0.0162</v>
+      </c>
+      <c r="V69">
+        <v>0.1484</v>
+      </c>
+      <c r="W69">
+        <v>0.01379592</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>16.12220611060194</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.05195620751162537</v>
+      </c>
+      <c r="C70">
+        <v>1134.745835071378</v>
+      </c>
+      <c r="D70">
+        <v>2741.025835071378</v>
+      </c>
+      <c r="E70">
+        <v>1431.98</v>
+      </c>
+      <c r="F70">
+        <v>1775.48</v>
+      </c>
+      <c r="G70">
+        <v>169.2</v>
+      </c>
+      <c r="H70">
+        <v>2267.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>544.4</v>
+      </c>
+      <c r="K70">
+        <v>87.5</v>
+      </c>
+      <c r="L70">
+        <v>456.9</v>
+      </c>
+      <c r="M70">
+        <v>28.76277599999999</v>
+      </c>
+      <c r="N70">
+        <v>428.137224</v>
+      </c>
+      <c r="O70">
+        <v>63.5355640416</v>
+      </c>
+      <c r="P70">
+        <v>364.6016599584</v>
+      </c>
+      <c r="Q70">
+        <v>452.1016599584</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1330468184738293</v>
+      </c>
+      <c r="T70">
+        <v>2.621754628682824</v>
+      </c>
+      <c r="U70">
+        <v>0.0162</v>
+      </c>
+      <c r="V70">
+        <v>0.1484</v>
+      </c>
+      <c r="W70">
+        <v>0.01379592</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>15.88511484426956</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.05193580615831261</v>
+      </c>
+      <c r="C71">
+        <v>1109.615034763538</v>
+      </c>
+      <c r="D71">
+        <v>2742.005034763538</v>
+      </c>
+      <c r="E71">
+        <v>1458.09</v>
+      </c>
+      <c r="F71">
+        <v>1801.59</v>
+      </c>
+      <c r="G71">
+        <v>169.2</v>
+      </c>
+      <c r="H71">
+        <v>2267.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>544.4</v>
+      </c>
+      <c r="K71">
+        <v>87.5</v>
+      </c>
+      <c r="L71">
+        <v>456.9</v>
+      </c>
+      <c r="M71">
+        <v>29.18575799999999</v>
+      </c>
+      <c r="N71">
+        <v>427.714242</v>
+      </c>
+      <c r="O71">
+        <v>63.4727935128</v>
+      </c>
+      <c r="P71">
+        <v>364.2414484872</v>
+      </c>
+      <c r="Q71">
+        <v>451.7414484872</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1368278108332665</v>
+      </c>
+      <c r="T71">
+        <v>2.701860399009884</v>
+      </c>
+      <c r="U71">
+        <v>0.0162</v>
+      </c>
+      <c r="V71">
+        <v>0.1484</v>
+      </c>
+      <c r="W71">
+        <v>0.01379592</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>15.65489578855551</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.05191540480499987</v>
+      </c>
+      <c r="C72">
+        <v>1084.484934321185</v>
+      </c>
+      <c r="D72">
+        <v>2742.984934321186</v>
+      </c>
+      <c r="E72">
+        <v>1484.2</v>
+      </c>
+      <c r="F72">
+        <v>1827.7</v>
+      </c>
+      <c r="G72">
+        <v>169.2</v>
+      </c>
+      <c r="H72">
+        <v>2267.5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>544.4</v>
+      </c>
+      <c r="K72">
+        <v>87.5</v>
+      </c>
+      <c r="L72">
+        <v>456.9</v>
+      </c>
+      <c r="M72">
+        <v>29.60874</v>
+      </c>
+      <c r="N72">
+        <v>427.29126</v>
+      </c>
+      <c r="O72">
+        <v>63.41002298399999</v>
+      </c>
+      <c r="P72">
+        <v>363.881237016</v>
+      </c>
+      <c r="Q72">
+        <v>451.381237016</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1408608693499996</v>
+      </c>
+      <c r="T72">
+        <v>2.787306554025415</v>
+      </c>
+      <c r="U72">
+        <v>0.0162</v>
+      </c>
+      <c r="V72">
+        <v>0.1484</v>
+      </c>
+      <c r="W72">
+        <v>0.01379592</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>15.43125442014756</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.05189500345168712</v>
+      </c>
+      <c r="C73">
+        <v>1059.355534494914</v>
+      </c>
+      <c r="D73">
+        <v>2743.965534494914</v>
+      </c>
+      <c r="E73">
+        <v>1510.31</v>
+      </c>
+      <c r="F73">
+        <v>1853.81</v>
+      </c>
+      <c r="G73">
+        <v>169.2</v>
+      </c>
+      <c r="H73">
+        <v>2267.5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>544.4</v>
+      </c>
+      <c r="K73">
+        <v>87.5</v>
+      </c>
+      <c r="L73">
+        <v>456.9</v>
+      </c>
+      <c r="M73">
+        <v>30.03172199999999</v>
+      </c>
+      <c r="N73">
+        <v>426.868278</v>
+      </c>
+      <c r="O73">
+        <v>63.3472524552</v>
+      </c>
+      <c r="P73">
+        <v>363.5210255448</v>
+      </c>
+      <c r="Q73">
+        <v>451.0210255448</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1451720698334039</v>
+      </c>
+      <c r="T73">
+        <v>2.878645547317879</v>
+      </c>
+      <c r="U73">
+        <v>0.0162</v>
+      </c>
+      <c r="V73">
+        <v>0.1484</v>
+      </c>
+      <c r="W73">
+        <v>0.01379592</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>15.21391280859619</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.05187460209837438</v>
+      </c>
+      <c r="C74">
+        <v>1034.226836036388</v>
+      </c>
+      <c r="D74">
+        <v>2744.946836036388</v>
+      </c>
+      <c r="E74">
+        <v>1536.42</v>
+      </c>
+      <c r="F74">
+        <v>1879.92</v>
+      </c>
+      <c r="G74">
+        <v>169.2</v>
+      </c>
+      <c r="H74">
+        <v>2267.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>544.4</v>
+      </c>
+      <c r="K74">
+        <v>87.5</v>
+      </c>
+      <c r="L74">
+        <v>456.9</v>
+      </c>
+      <c r="M74">
+        <v>30.45470399999999</v>
+      </c>
+      <c r="N74">
+        <v>426.445296</v>
+      </c>
+      <c r="O74">
+        <v>63.2844819264</v>
+      </c>
+      <c r="P74">
+        <v>363.1608140736</v>
+      </c>
+      <c r="Q74">
+        <v>450.6608140736</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1497912132084799</v>
+      </c>
+      <c r="T74">
+        <v>2.976508754416948</v>
+      </c>
+      <c r="U74">
+        <v>0.0162</v>
+      </c>
+      <c r="V74">
+        <v>0.1484</v>
+      </c>
+      <c r="W74">
+        <v>0.01379592</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>15.00260846403236</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.05185420074506163</v>
+      </c>
+      <c r="C75">
+        <v>1009.098839698352</v>
+      </c>
+      <c r="D75">
+        <v>2745.928839698352</v>
+      </c>
+      <c r="E75">
+        <v>1562.53</v>
+      </c>
+      <c r="F75">
+        <v>1906.03</v>
+      </c>
+      <c r="G75">
+        <v>169.2</v>
+      </c>
+      <c r="H75">
+        <v>2267.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>544.4</v>
+      </c>
+      <c r="K75">
+        <v>87.5</v>
+      </c>
+      <c r="L75">
+        <v>456.9</v>
+      </c>
+      <c r="M75">
+        <v>30.87768599999999</v>
+      </c>
+      <c r="N75">
+        <v>426.022314</v>
+      </c>
+      <c r="O75">
+        <v>63.2217113976</v>
+      </c>
+      <c r="P75">
+        <v>362.8006026024</v>
+      </c>
+      <c r="Q75">
+        <v>450.3006026024</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1547525153520801</v>
+      </c>
+      <c r="T75">
+        <v>3.081621087967799</v>
+      </c>
+      <c r="U75">
+        <v>0.0162</v>
+      </c>
+      <c r="V75">
+        <v>0.1484</v>
+      </c>
+      <c r="W75">
+        <v>0.01379592</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>14.79709327959356</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.05183379939174888</v>
+      </c>
+      <c r="C76">
+        <v>983.9715462346239</v>
+      </c>
+      <c r="D76">
+        <v>2746.911546234624</v>
+      </c>
+      <c r="E76">
+        <v>1588.64</v>
+      </c>
+      <c r="F76">
+        <v>1932.14</v>
+      </c>
+      <c r="G76">
+        <v>169.2</v>
+      </c>
+      <c r="H76">
+        <v>2267.5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>544.4</v>
+      </c>
+      <c r="K76">
+        <v>87.5</v>
+      </c>
+      <c r="L76">
+        <v>456.9</v>
+      </c>
+      <c r="M76">
+        <v>31.30066799999999</v>
+      </c>
+      <c r="N76">
+        <v>425.599332</v>
+      </c>
+      <c r="O76">
+        <v>63.1589408688</v>
+      </c>
+      <c r="P76">
+        <v>362.4403911312</v>
+      </c>
+      <c r="Q76">
+        <v>449.9403911312</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1600954561221111</v>
+      </c>
+      <c r="T76">
+        <v>3.194818985637947</v>
+      </c>
+      <c r="U76">
+        <v>0.0162</v>
+      </c>
+      <c r="V76">
+        <v>0.1484</v>
+      </c>
+      <c r="W76">
+        <v>0.01379592</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>14.59713255959905</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.05181339803843613</v>
+      </c>
+      <c r="C77">
+        <v>958.8449564001039</v>
+      </c>
+      <c r="D77">
+        <v>2747.894956400104</v>
+      </c>
+      <c r="E77">
+        <v>1614.75</v>
+      </c>
+      <c r="F77">
+        <v>1958.25</v>
+      </c>
+      <c r="G77">
+        <v>169.2</v>
+      </c>
+      <c r="H77">
+        <v>2267.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>544.4</v>
+      </c>
+      <c r="K77">
+        <v>87.5</v>
+      </c>
+      <c r="L77">
+        <v>456.9</v>
+      </c>
+      <c r="M77">
+        <v>31.72364999999999</v>
+      </c>
+      <c r="N77">
+        <v>425.17635</v>
+      </c>
+      <c r="O77">
+        <v>63.09617033999999</v>
+      </c>
+      <c r="P77">
+        <v>362.0801796599999</v>
+      </c>
+      <c r="Q77">
+        <v>449.5801796599999</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1658658321537445</v>
+      </c>
+      <c r="T77">
+        <v>3.317072715121706</v>
+      </c>
+      <c r="U77">
+        <v>0.0162</v>
+      </c>
+      <c r="V77">
+        <v>0.1484</v>
+      </c>
+      <c r="W77">
+        <v>0.01379592</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>14.40250412547106</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.05179299668512338</v>
+      </c>
+      <c r="C78">
+        <v>933.7190709507713</v>
+      </c>
+      <c r="D78">
+        <v>2748.879070950772</v>
+      </c>
+      <c r="E78">
+        <v>1640.86</v>
+      </c>
+      <c r="F78">
+        <v>1984.36</v>
+      </c>
+      <c r="G78">
+        <v>169.2</v>
+      </c>
+      <c r="H78">
+        <v>2267.5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>544.4</v>
+      </c>
+      <c r="K78">
+        <v>87.5</v>
+      </c>
+      <c r="L78">
+        <v>456.9</v>
+      </c>
+      <c r="M78">
+        <v>32.146632</v>
+      </c>
+      <c r="N78">
+        <v>424.753368</v>
+      </c>
+      <c r="O78">
+        <v>63.0333998112</v>
+      </c>
+      <c r="P78">
+        <v>361.7199681888</v>
+      </c>
+      <c r="Q78">
+        <v>449.2199681888</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1721170728546808</v>
+      </c>
+      <c r="T78">
+        <v>3.449514255395779</v>
+      </c>
+      <c r="U78">
+        <v>0.0162</v>
+      </c>
+      <c r="V78">
+        <v>0.1484</v>
+      </c>
+      <c r="W78">
+        <v>0.01379592</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>14.21299749224118</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.05177259533181064</v>
+      </c>
+      <c r="C79">
+        <v>908.5938906436916</v>
+      </c>
+      <c r="D79">
+        <v>2749.863890643692</v>
+      </c>
+      <c r="E79">
+        <v>1666.97</v>
+      </c>
+      <c r="F79">
+        <v>2010.47</v>
+      </c>
+      <c r="G79">
+        <v>169.2</v>
+      </c>
+      <c r="H79">
+        <v>2267.5</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>544.4</v>
+      </c>
+      <c r="K79">
+        <v>87.5</v>
+      </c>
+      <c r="L79">
+        <v>456.9</v>
+      </c>
+      <c r="M79">
+        <v>32.56961399999999</v>
+      </c>
+      <c r="N79">
+        <v>424.330386</v>
+      </c>
+      <c r="O79">
+        <v>62.9706292824</v>
+      </c>
+      <c r="P79">
+        <v>361.3597567176</v>
+      </c>
+      <c r="Q79">
+        <v>448.8597567176</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1789118997035245</v>
+      </c>
+      <c r="T79">
+        <v>3.593472451345859</v>
+      </c>
+      <c r="U79">
+        <v>0.0162</v>
+      </c>
+      <c r="V79">
+        <v>0.1484</v>
+      </c>
+      <c r="W79">
+        <v>0.01379592</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>14.02841310922506</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.05175219397849789</v>
+      </c>
+      <c r="C80">
+        <v>883.4694162370135</v>
+      </c>
+      <c r="D80">
+        <v>2750.849416237014</v>
+      </c>
+      <c r="E80">
+        <v>1693.08</v>
+      </c>
+      <c r="F80">
+        <v>2036.58</v>
+      </c>
+      <c r="G80">
+        <v>169.2</v>
+      </c>
+      <c r="H80">
+        <v>2267.5</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>544.4</v>
+      </c>
+      <c r="K80">
+        <v>87.5</v>
+      </c>
+      <c r="L80">
+        <v>456.9</v>
+      </c>
+      <c r="M80">
+        <v>32.99259599999999</v>
+      </c>
+      <c r="N80">
+        <v>423.907404</v>
+      </c>
+      <c r="O80">
+        <v>62.9078587536</v>
+      </c>
+      <c r="P80">
+        <v>360.9995452464</v>
+      </c>
+      <c r="Q80">
+        <v>448.4995452464</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1863244380840813</v>
+      </c>
+      <c r="T80">
+        <v>3.750517756018672</v>
+      </c>
+      <c r="U80">
+        <v>0.0162</v>
+      </c>
+      <c r="V80">
+        <v>0.1484</v>
+      </c>
+      <c r="W80">
+        <v>0.01379592</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>13.84856165910679</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.05280821502518515</v>
+      </c>
+      <c r="C81">
+        <v>807.2575054555227</v>
+      </c>
+      <c r="D81">
+        <v>2700.747505455523</v>
+      </c>
+      <c r="E81">
+        <v>1719.19</v>
+      </c>
+      <c r="F81">
+        <v>2062.69</v>
+      </c>
+      <c r="G81">
+        <v>169.2</v>
+      </c>
+      <c r="H81">
+        <v>2267.5</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>544.4</v>
+      </c>
+      <c r="K81">
+        <v>87.5</v>
+      </c>
+      <c r="L81">
+        <v>456.9</v>
+      </c>
+      <c r="M81">
+        <v>36.71588199999999</v>
+      </c>
+      <c r="N81">
+        <v>420.184118</v>
+      </c>
+      <c r="O81">
+        <v>62.3553231112</v>
+      </c>
+      <c r="P81">
+        <v>357.8287948888</v>
+      </c>
+      <c r="Q81">
+        <v>445.3287948888</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1944429325008817</v>
+      </c>
+      <c r="T81">
+        <v>3.922519756374612</v>
+      </c>
+      <c r="U81">
+        <v>0.0178</v>
+      </c>
+      <c r="V81">
+        <v>0.1484</v>
+      </c>
+      <c r="W81">
+        <v>0.01515848</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>12.44420602506567</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.05280143927187239</v>
+      </c>
+      <c r="C82">
+        <v>781.4631564944716</v>
+      </c>
+      <c r="D82">
+        <v>2701.063156494472</v>
+      </c>
+      <c r="E82">
+        <v>1745.3</v>
+      </c>
+      <c r="F82">
+        <v>2088.8</v>
+      </c>
+      <c r="G82">
+        <v>169.2</v>
+      </c>
+      <c r="H82">
+        <v>2267.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>544.4</v>
+      </c>
+      <c r="K82">
+        <v>87.5</v>
+      </c>
+      <c r="L82">
+        <v>456.9</v>
+      </c>
+      <c r="M82">
+        <v>37.18064</v>
+      </c>
+      <c r="N82">
+        <v>419.71936</v>
+      </c>
+      <c r="O82">
+        <v>62.286353024</v>
+      </c>
+      <c r="P82">
+        <v>357.433006976</v>
+      </c>
+      <c r="Q82">
+        <v>444.933006976</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.203373276359362</v>
+      </c>
+      <c r="T82">
+        <v>4.111721956766145</v>
+      </c>
+      <c r="U82">
+        <v>0.0178</v>
+      </c>
+      <c r="V82">
+        <v>0.1484</v>
+      </c>
+      <c r="W82">
+        <v>0.01515848</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>12.28865344975235</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.05279466351855963</v>
+      </c>
+      <c r="C83">
+        <v>755.6688813257506</v>
+      </c>
+      <c r="D83">
+        <v>2701.378881325751</v>
+      </c>
+      <c r="E83">
+        <v>1771.41</v>
+      </c>
+      <c r="F83">
+        <v>2114.91</v>
+      </c>
+      <c r="G83">
+        <v>169.2</v>
+      </c>
+      <c r="H83">
+        <v>2267.5</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>544.4</v>
+      </c>
+      <c r="K83">
+        <v>87.5</v>
+      </c>
+      <c r="L83">
+        <v>456.9</v>
+      </c>
+      <c r="M83">
+        <v>37.645398</v>
+      </c>
+      <c r="N83">
+        <v>419.254602</v>
+      </c>
+      <c r="O83">
+        <v>62.2173829368</v>
+      </c>
+      <c r="P83">
+        <v>357.0372190632</v>
+      </c>
+      <c r="Q83">
+        <v>444.5372190632</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2132436564134718</v>
+      </c>
+      <c r="T83">
+        <v>4.320840178251522</v>
+      </c>
+      <c r="U83">
+        <v>0.0178</v>
+      </c>
+      <c r="V83">
+        <v>0.1484</v>
+      </c>
+      <c r="W83">
+        <v>0.01515848</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>12.13694167876775</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.05278788776524689</v>
+      </c>
+      <c r="C84">
+        <v>729.874679975238</v>
+      </c>
+      <c r="D84">
+        <v>2701.694679975238</v>
+      </c>
+      <c r="E84">
+        <v>1797.52</v>
+      </c>
+      <c r="F84">
+        <v>2141.02</v>
+      </c>
+      <c r="G84">
+        <v>169.2</v>
+      </c>
+      <c r="H84">
+        <v>2267.5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>544.4</v>
+      </c>
+      <c r="K84">
+        <v>87.5</v>
+      </c>
+      <c r="L84">
+        <v>456.9</v>
+      </c>
+      <c r="M84">
+        <v>38.11015599999999</v>
+      </c>
+      <c r="N84">
+        <v>418.789844</v>
+      </c>
+      <c r="O84">
+        <v>62.14841284960001</v>
+      </c>
+      <c r="P84">
+        <v>356.6414311504</v>
+      </c>
+      <c r="Q84">
+        <v>444.1414311504</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2242107453624828</v>
+      </c>
+      <c r="T84">
+        <v>4.55319375767972</v>
+      </c>
+      <c r="U84">
+        <v>0.0178</v>
+      </c>
+      <c r="V84">
+        <v>0.1484</v>
+      </c>
+      <c r="W84">
+        <v>0.01515848</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>11.98893019488034</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.05278111201193414</v>
+      </c>
+      <c r="C85">
+        <v>704.0805524688249</v>
+      </c>
+      <c r="D85">
+        <v>2702.010552468825</v>
+      </c>
+      <c r="E85">
+        <v>1823.63</v>
+      </c>
+      <c r="F85">
+        <v>2167.13</v>
+      </c>
+      <c r="G85">
+        <v>169.2</v>
+      </c>
+      <c r="H85">
+        <v>2267.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>544.4</v>
+      </c>
+      <c r="K85">
+        <v>87.5</v>
+      </c>
+      <c r="L85">
+        <v>456.9</v>
+      </c>
+      <c r="M85">
+        <v>38.57491399999999</v>
+      </c>
+      <c r="N85">
+        <v>418.325086</v>
+      </c>
+      <c r="O85">
+        <v>62.0794427624</v>
+      </c>
+      <c r="P85">
+        <v>356.2456432376</v>
+      </c>
+      <c r="Q85">
+        <v>443.7456432376</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.236468080070201</v>
+      </c>
+      <c r="T85">
+        <v>4.812883052334766</v>
+      </c>
+      <c r="U85">
+        <v>0.0178</v>
+      </c>
+      <c r="V85">
+        <v>0.1484</v>
+      </c>
+      <c r="W85">
+        <v>0.01515848</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>11.84448525277335</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.0527743362586214</v>
+      </c>
+      <c r="C86">
+        <v>678.2864988324168</v>
+      </c>
+      <c r="D86">
+        <v>2702.326498832417</v>
+      </c>
+      <c r="E86">
+        <v>1849.74</v>
+      </c>
+      <c r="F86">
+        <v>2193.24</v>
+      </c>
+      <c r="G86">
+        <v>169.2</v>
+      </c>
+      <c r="H86">
+        <v>2267.5</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>544.4</v>
+      </c>
+      <c r="K86">
+        <v>87.5</v>
+      </c>
+      <c r="L86">
+        <v>456.9</v>
+      </c>
+      <c r="M86">
+        <v>39.03967199999999</v>
+      </c>
+      <c r="N86">
+        <v>417.860328</v>
+      </c>
+      <c r="O86">
+        <v>62.0104726752</v>
+      </c>
+      <c r="P86">
+        <v>355.8498553248</v>
+      </c>
+      <c r="Q86">
+        <v>443.3498553248</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2502575816163837</v>
+      </c>
+      <c r="T86">
+        <v>5.105033508821689</v>
+      </c>
+      <c r="U86">
+        <v>0.0178</v>
+      </c>
+      <c r="V86">
+        <v>0.1484</v>
+      </c>
+      <c r="W86">
+        <v>0.01515848</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>11.70347947595462</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.05276756050530865</v>
+      </c>
+      <c r="C87">
+        <v>652.4925190919298</v>
+      </c>
+      <c r="D87">
+        <v>2702.64251909193</v>
+      </c>
+      <c r="E87">
+        <v>1875.85</v>
+      </c>
+      <c r="F87">
+        <v>2219.35</v>
+      </c>
+      <c r="G87">
+        <v>169.2</v>
+      </c>
+      <c r="H87">
+        <v>2267.5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>544.4</v>
+      </c>
+      <c r="K87">
+        <v>87.5</v>
+      </c>
+      <c r="L87">
+        <v>456.9</v>
+      </c>
+      <c r="M87">
+        <v>39.50442999999999</v>
+      </c>
+      <c r="N87">
+        <v>417.39557</v>
+      </c>
+      <c r="O87">
+        <v>61.941502588</v>
+      </c>
+      <c r="P87">
+        <v>355.454067412</v>
+      </c>
+      <c r="Q87">
+        <v>442.954067412</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2658856833687243</v>
+      </c>
+      <c r="T87">
+        <v>5.436137359506872</v>
+      </c>
+      <c r="U87">
+        <v>0.0178</v>
+      </c>
+      <c r="V87">
+        <v>0.1484</v>
+      </c>
+      <c r="W87">
+        <v>0.01515848</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>11.56579148211985</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.0527607847519959</v>
+      </c>
+      <c r="C88">
+        <v>626.69861327329</v>
+      </c>
+      <c r="D88">
+        <v>2702.95861327329</v>
+      </c>
+      <c r="E88">
+        <v>1901.96</v>
+      </c>
+      <c r="F88">
+        <v>2245.46</v>
+      </c>
+      <c r="G88">
+        <v>169.2</v>
+      </c>
+      <c r="H88">
+        <v>2267.5</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>544.4</v>
+      </c>
+      <c r="K88">
+        <v>87.5</v>
+      </c>
+      <c r="L88">
+        <v>456.9</v>
+      </c>
+      <c r="M88">
+        <v>39.969188</v>
+      </c>
+      <c r="N88">
+        <v>416.930812</v>
+      </c>
+      <c r="O88">
+        <v>61.87253250080001</v>
+      </c>
+      <c r="P88">
+        <v>355.0582794992</v>
+      </c>
+      <c r="Q88">
+        <v>442.5582794992</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.283746371085685</v>
+      </c>
+      <c r="T88">
+        <v>5.814541760289937</v>
+      </c>
+      <c r="U88">
+        <v>0.0178</v>
+      </c>
+      <c r="V88">
+        <v>0.1484</v>
+      </c>
+      <c r="W88">
+        <v>0.01515848</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>11.43130553465334</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.05275400899868315</v>
+      </c>
+      <c r="C89">
+        <v>600.9047814024398</v>
+      </c>
+      <c r="D89">
+        <v>2703.27478140244</v>
+      </c>
+      <c r="E89">
+        <v>1928.07</v>
+      </c>
+      <c r="F89">
+        <v>2271.57</v>
+      </c>
+      <c r="G89">
+        <v>169.2</v>
+      </c>
+      <c r="H89">
+        <v>2267.5</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>544.4</v>
+      </c>
+      <c r="K89">
+        <v>87.5</v>
+      </c>
+      <c r="L89">
+        <v>456.9</v>
+      </c>
+      <c r="M89">
+        <v>40.43394599999999</v>
+      </c>
+      <c r="N89">
+        <v>416.466054</v>
+      </c>
+      <c r="O89">
+        <v>61.8035624136</v>
+      </c>
+      <c r="P89">
+        <v>354.6624915864</v>
+      </c>
+      <c r="Q89">
+        <v>442.1624915864</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3043548569129473</v>
+      </c>
+      <c r="T89">
+        <v>6.251162222731936</v>
+      </c>
+      <c r="U89">
+        <v>0.0178</v>
+      </c>
+      <c r="V89">
+        <v>0.1484</v>
+      </c>
+      <c r="W89">
+        <v>0.01515848</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>11.29991121816308</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.0527472332453704</v>
+      </c>
+      <c r="C90">
+        <v>575.1110235053306</v>
+      </c>
+      <c r="D90">
+        <v>2703.591023505331</v>
+      </c>
+      <c r="E90">
+        <v>1954.18</v>
+      </c>
+      <c r="F90">
+        <v>2297.68</v>
+      </c>
+      <c r="G90">
+        <v>169.2</v>
+      </c>
+      <c r="H90">
+        <v>2267.5</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>544.4</v>
+      </c>
+      <c r="K90">
+        <v>87.5</v>
+      </c>
+      <c r="L90">
+        <v>456.9</v>
+      </c>
+      <c r="M90">
+        <v>40.89870399999999</v>
+      </c>
+      <c r="N90">
+        <v>416.001296</v>
+      </c>
+      <c r="O90">
+        <v>61.7345923264</v>
+      </c>
+      <c r="P90">
+        <v>354.2667036736</v>
+      </c>
+      <c r="Q90">
+        <v>441.7667036736</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3283980903780867</v>
+      </c>
+      <c r="T90">
+        <v>6.760552762247601</v>
+      </c>
+      <c r="U90">
+        <v>0.0178</v>
+      </c>
+      <c r="V90">
+        <v>0.1484</v>
+      </c>
+      <c r="W90">
+        <v>0.01515848</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>11.1715031361385</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.05274045749205765</v>
+      </c>
+      <c r="C91">
+        <v>549.3173396079251</v>
+      </c>
+      <c r="D91">
+        <v>2703.907339607925</v>
+      </c>
+      <c r="E91">
+        <v>1980.29</v>
+      </c>
+      <c r="F91">
+        <v>2323.79</v>
+      </c>
+      <c r="G91">
+        <v>169.2</v>
+      </c>
+      <c r="H91">
+        <v>2267.5</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>544.4</v>
+      </c>
+      <c r="K91">
+        <v>87.5</v>
+      </c>
+      <c r="L91">
+        <v>456.9</v>
+      </c>
+      <c r="M91">
+        <v>41.36346199999999</v>
+      </c>
+      <c r="N91">
+        <v>415.536538</v>
+      </c>
+      <c r="O91">
+        <v>61.6656222392</v>
+      </c>
+      <c r="P91">
+        <v>353.8709157608</v>
+      </c>
+      <c r="Q91">
+        <v>441.3709157608</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3568128208368878</v>
+      </c>
+      <c r="T91">
+        <v>7.362559763493387</v>
+      </c>
+      <c r="U91">
+        <v>0.0178</v>
+      </c>
+      <c r="V91">
+        <v>0.1484</v>
+      </c>
+      <c r="W91">
+        <v>0.01515848</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>11.04598062899087</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.0527336817387449</v>
+      </c>
+      <c r="C92">
+        <v>523.5237297362023</v>
+      </c>
+      <c r="D92">
+        <v>2704.223729736203</v>
+      </c>
+      <c r="E92">
+        <v>2006.4</v>
+      </c>
+      <c r="F92">
+        <v>2349.9</v>
+      </c>
+      <c r="G92">
+        <v>169.2</v>
+      </c>
+      <c r="H92">
+        <v>2267.5</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>544.4</v>
+      </c>
+      <c r="K92">
+        <v>87.5</v>
+      </c>
+      <c r="L92">
+        <v>456.9</v>
+      </c>
+      <c r="M92">
+        <v>41.82821999999999</v>
+      </c>
+      <c r="N92">
+        <v>415.07178</v>
+      </c>
+      <c r="O92">
+        <v>61.596652152</v>
+      </c>
+      <c r="P92">
+        <v>353.475127848</v>
+      </c>
+      <c r="Q92">
+        <v>440.975127848</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3909104973874491</v>
+      </c>
+      <c r="T92">
+        <v>8.084968164988329</v>
+      </c>
+      <c r="U92">
+        <v>0.0178</v>
+      </c>
+      <c r="V92">
+        <v>0.1484</v>
+      </c>
+      <c r="W92">
+        <v>0.01515848</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>10.92324751089097</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.05272690598543216</v>
+      </c>
+      <c r="C93">
+        <v>497.7301939161503</v>
+      </c>
+      <c r="D93">
+        <v>2704.540193916151</v>
+      </c>
+      <c r="E93">
+        <v>2032.51</v>
+      </c>
+      <c r="F93">
+        <v>2376.01</v>
+      </c>
+      <c r="G93">
+        <v>169.2</v>
+      </c>
+      <c r="H93">
+        <v>2267.5</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>544.4</v>
+      </c>
+      <c r="K93">
+        <v>87.5</v>
+      </c>
+      <c r="L93">
+        <v>456.9</v>
+      </c>
+      <c r="M93">
+        <v>42.292978</v>
+      </c>
+      <c r="N93">
+        <v>414.607022</v>
+      </c>
+      <c r="O93">
+        <v>61.5276820648</v>
+      </c>
+      <c r="P93">
+        <v>353.0793399352</v>
+      </c>
+      <c r="Q93">
+        <v>440.5793399352</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4325854353936909</v>
+      </c>
+      <c r="T93">
+        <v>8.967911766815485</v>
+      </c>
+      <c r="U93">
+        <v>0.0178</v>
+      </c>
+      <c r="V93">
+        <v>0.1484</v>
+      </c>
+      <c r="W93">
+        <v>0.01515848</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>10.8032118239581</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.05272013023211942</v>
+      </c>
+      <c r="C94">
+        <v>471.9367321737691</v>
+      </c>
+      <c r="D94">
+        <v>2704.856732173769</v>
+      </c>
+      <c r="E94">
+        <v>2058.62</v>
+      </c>
+      <c r="F94">
+        <v>2402.12</v>
+      </c>
+      <c r="G94">
+        <v>169.2</v>
+      </c>
+      <c r="H94">
+        <v>2267.5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>544.4</v>
+      </c>
+      <c r="K94">
+        <v>87.5</v>
+      </c>
+      <c r="L94">
+        <v>456.9</v>
+      </c>
+      <c r="M94">
+        <v>42.75773599999999</v>
+      </c>
+      <c r="N94">
+        <v>414.142264</v>
+      </c>
+      <c r="O94">
+        <v>61.4587119776</v>
+      </c>
+      <c r="P94">
+        <v>352.6835520224</v>
+      </c>
+      <c r="Q94">
+        <v>440.1835520224</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.484679107901493</v>
+      </c>
+      <c r="T94">
+        <v>10.07159126909943</v>
+      </c>
+      <c r="U94">
+        <v>0.0178</v>
+      </c>
+      <c r="V94">
+        <v>0.1484</v>
+      </c>
+      <c r="W94">
+        <v>0.01515848</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>10.6857856084803</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.05445572807880666</v>
+      </c>
+      <c r="C95">
+        <v>367.0967826982455</v>
+      </c>
+      <c r="D95">
+        <v>2626.126782698246</v>
+      </c>
+      <c r="E95">
+        <v>2084.73</v>
+      </c>
+      <c r="F95">
+        <v>2428.23</v>
+      </c>
+      <c r="G95">
+        <v>169.2</v>
+      </c>
+      <c r="H95">
+        <v>2267.5</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>544.4</v>
+      </c>
+      <c r="K95">
+        <v>87.5</v>
+      </c>
+      <c r="L95">
+        <v>456.9</v>
+      </c>
+      <c r="M95">
+        <v>48.56459999999999</v>
+      </c>
+      <c r="N95">
+        <v>408.3354</v>
+      </c>
+      <c r="O95">
+        <v>60.59697336</v>
+      </c>
+      <c r="P95">
+        <v>347.73842664</v>
+      </c>
+      <c r="Q95">
+        <v>435.23842664</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5516566868400956</v>
+      </c>
+      <c r="T95">
+        <v>11.49060777203593</v>
+      </c>
+      <c r="U95">
+        <v>0.02</v>
+      </c>
+      <c r="V95">
+        <v>0.1484</v>
+      </c>
+      <c r="W95">
+        <v>0.017032</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>9.408087372283516</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.05446768752549391</v>
+      </c>
+      <c r="C96">
+        <v>340.460176115927</v>
+      </c>
+      <c r="D96">
+        <v>2625.600176115927</v>
+      </c>
+      <c r="E96">
+        <v>2110.84</v>
+      </c>
+      <c r="F96">
+        <v>2454.34</v>
+      </c>
+      <c r="G96">
+        <v>169.2</v>
+      </c>
+      <c r="H96">
+        <v>2267.5</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>544.4</v>
+      </c>
+      <c r="K96">
+        <v>87.5</v>
+      </c>
+      <c r="L96">
+        <v>456.9</v>
+      </c>
+      <c r="M96">
+        <v>49.0868</v>
+      </c>
+      <c r="N96">
+        <v>407.8132</v>
+      </c>
+      <c r="O96">
+        <v>60.51947888</v>
+      </c>
+      <c r="P96">
+        <v>347.29372112</v>
+      </c>
+      <c r="Q96">
+        <v>434.79372112</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6409601254248992</v>
+      </c>
+      <c r="T96">
+        <v>13.38262977595125</v>
+      </c>
+      <c r="U96">
+        <v>0.02</v>
+      </c>
+      <c r="V96">
+        <v>0.1484</v>
+      </c>
+      <c r="W96">
+        <v>0.017032</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>9.308001336408159</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.05447964697218118</v>
+      </c>
+      <c r="C97">
+        <v>313.8237806878419</v>
+      </c>
+      <c r="D97">
+        <v>2625.073780687842</v>
+      </c>
+      <c r="E97">
+        <v>2136.95</v>
+      </c>
+      <c r="F97">
+        <v>2480.45</v>
+      </c>
+      <c r="G97">
+        <v>169.2</v>
+      </c>
+      <c r="H97">
+        <v>2267.5</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>544.4</v>
+      </c>
+      <c r="K97">
+        <v>87.5</v>
+      </c>
+      <c r="L97">
+        <v>456.9</v>
+      </c>
+      <c r="M97">
+        <v>49.60899999999999</v>
+      </c>
+      <c r="N97">
+        <v>407.291</v>
+      </c>
+      <c r="O97">
+        <v>60.4419844</v>
+      </c>
+      <c r="P97">
+        <v>346.8490156</v>
+      </c>
+      <c r="Q97">
+        <v>434.3490156</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.7659849394436244</v>
+      </c>
+      <c r="T97">
+        <v>16.03146058143272</v>
+      </c>
+      <c r="U97">
+        <v>0.02</v>
+      </c>
+      <c r="V97">
+        <v>0.1484</v>
+      </c>
+      <c r="W97">
+        <v>0.017032</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>9.210022374972285</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.05449160641886842</v>
+      </c>
+      <c r="C98">
+        <v>287.1875962870172</v>
+      </c>
+      <c r="D98">
+        <v>2624.547596287017</v>
+      </c>
+      <c r="E98">
+        <v>2163.06</v>
+      </c>
+      <c r="F98">
+        <v>2506.56</v>
+      </c>
+      <c r="G98">
+        <v>169.2</v>
+      </c>
+      <c r="H98">
+        <v>2267.5</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>544.4</v>
+      </c>
+      <c r="K98">
+        <v>87.5</v>
+      </c>
+      <c r="L98">
+        <v>456.9</v>
+      </c>
+      <c r="M98">
+        <v>50.13119999999999</v>
+      </c>
+      <c r="N98">
+        <v>406.7688</v>
+      </c>
+      <c r="O98">
+        <v>60.36448992</v>
+      </c>
+      <c r="P98">
+        <v>346.40431008</v>
+      </c>
+      <c r="Q98">
+        <v>433.90431008</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.9535221604717098</v>
+      </c>
+      <c r="T98">
+        <v>20.00470678965487</v>
+      </c>
+      <c r="U98">
+        <v>0.02</v>
+      </c>
+      <c r="V98">
+        <v>0.1484</v>
+      </c>
+      <c r="W98">
+        <v>0.017032</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>9.114084641899657</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.05450356586555567</v>
+      </c>
+      <c r="C99">
+        <v>260.5516227865787</v>
+      </c>
+      <c r="D99">
+        <v>2624.021622786579</v>
+      </c>
+      <c r="E99">
+        <v>2189.17</v>
+      </c>
+      <c r="F99">
+        <v>2532.67</v>
+      </c>
+      <c r="G99">
+        <v>169.2</v>
+      </c>
+      <c r="H99">
+        <v>2267.5</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>544.4</v>
+      </c>
+      <c r="K99">
+        <v>87.5</v>
+      </c>
+      <c r="L99">
+        <v>456.9</v>
+      </c>
+      <c r="M99">
+        <v>50.65339999999999</v>
+      </c>
+      <c r="N99">
+        <v>406.2466</v>
+      </c>
+      <c r="O99">
+        <v>60.28699544</v>
+      </c>
+      <c r="P99">
+        <v>345.95960456</v>
+      </c>
+      <c r="Q99">
+        <v>433.45960456</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.266084195518522</v>
+      </c>
+      <c r="T99">
+        <v>26.62678380335851</v>
+      </c>
+      <c r="U99">
+        <v>0.02</v>
+      </c>
+      <c r="V99">
+        <v>0.1484</v>
+      </c>
+      <c r="W99">
+        <v>0.017032</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>9.020125006416155</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.05451552531224294</v>
+      </c>
+      <c r="C100">
+        <v>233.9158600597557</v>
+      </c>
+      <c r="D100">
+        <v>2623.495860059756</v>
+      </c>
+      <c r="E100">
+        <v>2215.28</v>
+      </c>
+      <c r="F100">
+        <v>2558.78</v>
+      </c>
+      <c r="G100">
+        <v>169.2</v>
+      </c>
+      <c r="H100">
+        <v>2267.5</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>544.4</v>
+      </c>
+      <c r="K100">
+        <v>87.5</v>
+      </c>
+      <c r="L100">
+        <v>456.9</v>
+      </c>
+      <c r="M100">
+        <v>51.17559999999999</v>
+      </c>
+      <c r="N100">
+        <v>405.7244</v>
+      </c>
+      <c r="O100">
+        <v>60.20950096</v>
+      </c>
+      <c r="P100">
+        <v>345.51489904</v>
+      </c>
+      <c r="Q100">
+        <v>433.01489904</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.891208265612145</v>
+      </c>
+      <c r="T100">
+        <v>39.87093783076578</v>
+      </c>
+      <c r="U100">
+        <v>0.02</v>
+      </c>
+      <c r="V100">
+        <v>0.1484</v>
+      </c>
+      <c r="W100">
+        <v>0.017032</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>8.928082914513951</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.05452748475893018</v>
+      </c>
+      <c r="C101">
+        <v>207.2803079798769</v>
+      </c>
+      <c r="D101">
+        <v>2622.970307979877</v>
+      </c>
+      <c r="E101">
+        <v>2241.39</v>
+      </c>
+      <c r="F101">
+        <v>2584.89</v>
+      </c>
+      <c r="G101">
+        <v>169.2</v>
+      </c>
+      <c r="H101">
+        <v>2267.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>544.4</v>
+      </c>
+      <c r="K101">
+        <v>87.5</v>
+      </c>
+      <c r="L101">
+        <v>456.9</v>
+      </c>
+      <c r="M101">
+        <v>51.69779999999999</v>
+      </c>
+      <c r="N101">
+        <v>405.2022</v>
+      </c>
+      <c r="O101">
+        <v>60.13200648</v>
+      </c>
+      <c r="P101">
+        <v>345.07019352</v>
+      </c>
+      <c r="Q101">
+        <v>432.57019352</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.766580475893015</v>
+      </c>
+      <c r="T101">
+        <v>79.60339991298761</v>
+      </c>
+      <c r="U101">
+        <v>0.02</v>
+      </c>
+      <c r="V101">
+        <v>0.1484</v>
+      </c>
+      <c r="W101">
+        <v>0.017032</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>8.837900258811789</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
